--- a/multi_echelon_inventory.xlsx
+++ b/multi_echelon_inventory.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\whut\code\SCIMAI-Gym-new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB830C5-9C09-4C2F-A06E-990FF99DD443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BABF2AC-7AB4-4E0E-89BF-740DA675E5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C6CD6CAE-CD59-4781-B9D4-E37BEA742F3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C6CD6CAE-CD59-4781-B9D4-E37BEA742F3C}"/>
   </bookViews>
   <sheets>
-    <sheet name="汇总-cost" sheetId="5" r:id="rId1"/>
-    <sheet name="transitions_state_all_2025-cost" sheetId="4" r:id="rId2"/>
+    <sheet name="transitions_state_all_2025-cost" sheetId="4" r:id="rId1"/>
+    <sheet name="汇总-cost" sheetId="5" r:id="rId2"/>
     <sheet name="transitions_state_all_2025-03-1" sheetId="1" r:id="rId3"/>
     <sheet name="汇总" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
@@ -1302,937 +1302,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CA2A45-21E6-41A8-8674-CFC6514CB879}">
-  <dimension ref="A1:Q39"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2">
-        <f>SUM('transitions_state_all_2025-03-1'!H2:H31)*-1</f>
-        <v>1802.3999999999996</v>
-      </c>
-      <c r="C2">
-        <f>SUM('transitions_state_all_2025-cost'!U$2:U$31)</f>
-        <v>618.00000000000023</v>
-      </c>
-      <c r="D2">
-        <f>SUM('transitions_state_all_2025-cost'!AH$2:AH$31)</f>
-        <v>610.50000000000011</v>
-      </c>
-      <c r="E2">
-        <f>SUM('transitions_state_all_2025-cost'!AU$2:AU$31)</f>
-        <v>607.5</v>
-      </c>
-      <c r="F2">
-        <f>SUM(C2:E2)+B2</f>
-        <v>3638.4</v>
-      </c>
-      <c r="G2">
-        <f>F2/$F$5</f>
-        <v>1.2248030700868513</v>
-      </c>
-      <c r="K2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2">
-        <v>-6030</v>
-      </c>
-      <c r="M2">
-        <v>13717.399999999998</v>
-      </c>
-      <c r="N2">
-        <v>13395.2</v>
-      </c>
-      <c r="O2">
-        <v>14444.199999999999</v>
-      </c>
-      <c r="P2">
-        <v>35526.799999999996</v>
-      </c>
-      <c r="Q2">
-        <v>1.0499941452649832</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3">
-        <f>SUM('transitions_state_all_2025-03-1'!F2:F31)*-1</f>
-        <v>1772.4000000000005</v>
-      </c>
-      <c r="C3">
-        <f>SUM('transitions_state_all_2025-cost'!S$2:S$31)</f>
-        <v>496.2</v>
-      </c>
-      <c r="D3">
-        <f>SUM('transitions_state_all_2025-cost'!AF$2:AF$31)</f>
-        <v>581.70000000000005</v>
-      </c>
-      <c r="E3">
-        <f>SUM('transitions_state_all_2025-cost'!AS$2:AS$31)</f>
-        <v>634.20000000000005</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F5" si="0">SUM(C3:E3)+B3</f>
-        <v>3484.5000000000009</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G4" si="1">F3/$F$5</f>
-        <v>1.1729953544738441</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3">
-        <v>-5262.1079999999993</v>
-      </c>
-      <c r="M3">
-        <v>13657</v>
-      </c>
-      <c r="N3">
-        <v>13273.600000000002</v>
-      </c>
-      <c r="O3">
-        <v>14255.600000000004</v>
-      </c>
-      <c r="P3">
-        <v>35924.092000000004</v>
-      </c>
-      <c r="Q3">
-        <v>1.0383820417785368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4">
-        <f>SUM('transitions_state_all_2025-03-1'!G2:G31)*-1</f>
-        <v>1770.6000000000001</v>
-      </c>
-      <c r="C4">
-        <f>SUM('transitions_state_all_2025-cost'!T$2:T$31)</f>
-        <v>618.90000000000009</v>
-      </c>
-      <c r="D4">
-        <f>SUM('transitions_state_all_2025-cost'!AG$2:AG$31)</f>
-        <v>593.0999999999998</v>
-      </c>
-      <c r="E4">
-        <f>SUM('transitions_state_all_2025-cost'!AT$2:AT$31)</f>
-        <v>591.30000000000007</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>3573.9000000000005</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>1.2030902847909515</v>
-      </c>
-      <c r="K4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4">
-        <v>-5171.7479999999987</v>
-      </c>
-      <c r="M4">
-        <v>13953.399999999998</v>
-      </c>
-      <c r="N4">
-        <v>12976.2</v>
-      </c>
-      <c r="O4">
-        <v>14116.400000000001</v>
-      </c>
-      <c r="P4">
-        <v>35874.252</v>
-      </c>
-      <c r="Q4">
-        <v>1.0398246631037771</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5">
-        <f>SUM('transitions_state_all_2025-03-1'!E2:E31)*-1</f>
-        <v>1467.3</v>
-      </c>
-      <c r="C5">
-        <f>SUM('transitions_state_all_2025-cost'!R$2:R$31)</f>
-        <v>437.39999999999992</v>
-      </c>
-      <c r="D5">
-        <f>SUM('transitions_state_all_2025-cost'!AE$2:AE$31)</f>
-        <v>558.9</v>
-      </c>
-      <c r="E5">
-        <f>SUM('transitions_state_all_2025-cost'!AR$2:AR$31)</f>
-        <v>506.99999999999994</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>2970.6</v>
-      </c>
-      <c r="K5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5">
-        <v>-4967.268</v>
-      </c>
-      <c r="M5">
-        <v>14050.800000000001</v>
-      </c>
-      <c r="N5">
-        <v>13713.000000000002</v>
-      </c>
-      <c r="O5">
-        <v>14506.4</v>
-      </c>
-      <c r="P5">
-        <v>37302.932000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!L$2:L$31)</f>
-        <v>168.63333333333333</v>
-      </c>
-      <c r="C9" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!Y$2:Y$31)</f>
-        <v>58.06666666666667</v>
-      </c>
-      <c r="D9" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AL$2:AL$31)</f>
-        <v>57.4</v>
-      </c>
-      <c r="E9" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AY$2:AY$31)</f>
-        <v>57.033333333333331</v>
-      </c>
-      <c r="F9" s="2">
-        <f>SUM(B9:E9)</f>
-        <v>341.13333333333333</v>
-      </c>
-      <c r="G9">
-        <f>F9/F12</f>
-        <v>1.2431972789115646</v>
-      </c>
-      <c r="H9">
-        <f>B9/B12</f>
-        <v>1.2375244618395302</v>
-      </c>
-      <c r="I9">
-        <f>(C9-C12)/C9</f>
-        <v>0.32319173363949494</v>
-      </c>
-      <c r="J9">
-        <f>E9/E12</f>
-        <v>1.2282842785355348</v>
-      </c>
-      <c r="K9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9">
-        <v>576.66666666666663</v>
-      </c>
-      <c r="M9">
-        <v>180.43333333333334</v>
-      </c>
-      <c r="N9">
-        <v>164.13333333333333</v>
-      </c>
-      <c r="O9">
-        <v>125.96666666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!J$2:J$31)</f>
-        <v>166.46666666666667</v>
-      </c>
-      <c r="C10" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!W$2:W$31)</f>
-        <v>45.1</v>
-      </c>
-      <c r="D10" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AJ$2:AJ$31)</f>
-        <v>54.3</v>
-      </c>
-      <c r="E10" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AW$2:AW$31)</f>
-        <v>60.3</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" ref="F10:F11" si="2">SUM(B10:E10)</f>
-        <v>326.16666666666669</v>
-      </c>
-      <c r="G10">
-        <f>F10/F12</f>
-        <v>1.1886540330417883</v>
-      </c>
-      <c r="H10">
-        <f>B10/B12</f>
-        <v>1.221624266144814</v>
-      </c>
-      <c r="I10">
-        <f>(C10-C12)/C10</f>
-        <v>0.12860310421286039</v>
-      </c>
-      <c r="K10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10">
-        <v>514.72266666666667</v>
-      </c>
-      <c r="M10">
-        <v>191.2</v>
-      </c>
-      <c r="N10">
-        <v>184.73333333333332</v>
-      </c>
-      <c r="O10">
-        <v>153.06666666666666</v>
-      </c>
-      <c r="P10">
-        <v>1.5031446540880502</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!K$2:K$31)</f>
-        <v>165.83333333333334</v>
-      </c>
-      <c r="C11" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!X$2:X$31)</f>
-        <v>58.466666666666669</v>
-      </c>
-      <c r="D11" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AK$2:AK$31)</f>
-        <v>56.133333333333333</v>
-      </c>
-      <c r="E11" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AX$2:AX$31)</f>
-        <v>56.033333333333331</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="2"/>
-        <v>336.4666666666667</v>
-      </c>
-      <c r="I11">
-        <f>(C11-C12)/C11</f>
-        <v>0.32782212086659074</v>
-      </c>
-      <c r="K11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11">
-        <v>523.63866666666672</v>
-      </c>
-      <c r="M11">
-        <v>144.13333333333333</v>
-      </c>
-      <c r="N11">
-        <v>237.63333333333333</v>
-      </c>
-      <c r="O11">
-        <v>174.66666666666666</v>
-      </c>
-      <c r="P11">
-        <v>1.1331236897274632</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!I$2:I$31)</f>
-        <v>136.26666666666668</v>
-      </c>
-      <c r="C12" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!V$2:V$31)</f>
-        <v>39.299999999999997</v>
-      </c>
-      <c r="D12" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AI$2:AI$31)</f>
-        <v>52.4</v>
-      </c>
-      <c r="E12" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AV$2:AV$31)</f>
-        <v>46.43333333333333</v>
-      </c>
-      <c r="F12" s="2">
-        <f>SUM(B12:E12)</f>
-        <v>274.39999999999998</v>
-      </c>
-      <c r="H12">
-        <f>B9/B12</f>
-        <v>1.2375244618395302</v>
-      </c>
-      <c r="K12" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12">
-        <v>496.58533333333332</v>
-      </c>
-      <c r="M12">
-        <v>127.2</v>
-      </c>
-      <c r="N12">
-        <v>115.13333333333334</v>
-      </c>
-      <c r="O12">
-        <v>110.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <f>B12/B10</f>
-        <v>0.8185822987585103</v>
-      </c>
-      <c r="C13">
-        <f>C11/C12</f>
-        <v>1.4877014418999153</v>
-      </c>
-      <c r="D13">
-        <f>D10/D12</f>
-        <v>1.0362595419847327</v>
-      </c>
-      <c r="E13">
-        <f>E10/E12</f>
-        <v>1.2986360373295047</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <f>B12/B9</f>
-        <v>0.80806483494761827</v>
-      </c>
-      <c r="C14">
-        <f>C9/C12</f>
-        <v>1.4775233248515693</v>
-      </c>
-      <c r="D14">
-        <f>D9/D12</f>
-        <v>1.0954198473282444</v>
-      </c>
-      <c r="E14">
-        <f>E9/E12</f>
-        <v>1.2282842785355348</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AZ2:AZ31)</f>
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AZ3:AZ32)</f>
-        <v>10.241379310344827</v>
-      </c>
-      <c r="F17">
-        <f>E17/E16</f>
-        <v>1.0344827586206895</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AZ4:AZ33)</f>
-        <v>10.607142857142858</v>
-      </c>
-      <c r="F18">
-        <f>E18/E16</f>
-        <v>1.0714285714285714</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AZ5:AZ34)</f>
-        <v>9.9629629629629637</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>32</v>
-      </c>
-      <c r="B25" s="2">
-        <v>145</v>
-      </c>
-      <c r="C25" s="2">
-        <v>42</v>
-      </c>
-      <c r="D25" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AK$2:AK$31)</f>
-        <v>56.133333333333333</v>
-      </c>
-      <c r="E25" s="2">
-        <v>55</v>
-      </c>
-      <c r="F25" s="2">
-        <f>SUM(B25:E25)</f>
-        <v>298.13333333333333</v>
-      </c>
-      <c r="G25">
-        <f>F25/F27</f>
-        <v>1.0864917395529641</v>
-      </c>
-      <c r="H25">
-        <f>F25/F26</f>
-        <v>1.0351851851851852</v>
-      </c>
-      <c r="I25">
-        <f>B25/B27</f>
-        <v>1.0640900195694716</v>
-      </c>
-      <c r="J25">
-        <f>C25/C27</f>
-        <v>1.0687022900763359</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>64</v>
-      </c>
-      <c r="B26" s="2">
-        <v>143</v>
-      </c>
-      <c r="C26" s="2">
-        <v>45</v>
-      </c>
-      <c r="D26" s="2">
-        <v>51</v>
-      </c>
-      <c r="E26" s="2">
-        <v>49</v>
-      </c>
-      <c r="F26" s="2">
-        <f t="shared" ref="F26" si="3">SUM(B26:E26)</f>
-        <v>288</v>
-      </c>
-      <c r="G26">
-        <f>F26/F27</f>
-        <v>1.0495626822157436</v>
-      </c>
-      <c r="H26">
-        <f>F26/F27</f>
-        <v>1.0495626822157436</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>128</v>
-      </c>
-      <c r="B27" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!I$2:I$31)</f>
-        <v>136.26666666666668</v>
-      </c>
-      <c r="C27" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!V$2:V$31)</f>
-        <v>39.299999999999997</v>
-      </c>
-      <c r="D27" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AI$2:AI$31)</f>
-        <v>52.4</v>
-      </c>
-      <c r="E27" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AV$2:AV$31)</f>
-        <v>46.43333333333333</v>
-      </c>
-      <c r="F27" s="2">
-        <f>SUM(B27:E27)</f>
-        <v>274.39999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>0.9</v>
-      </c>
-      <c r="B31" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!I$2:I$31)</f>
-        <v>136.26666666666668</v>
-      </c>
-      <c r="C31" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!V$2:V$31)</f>
-        <v>39.299999999999997</v>
-      </c>
-      <c r="D31" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AI$2:AI$31)</f>
-        <v>52.4</v>
-      </c>
-      <c r="E31" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AV$2:AV$31)</f>
-        <v>46.43333333333333</v>
-      </c>
-      <c r="F31" s="2">
-        <f>SUM(B31:E31)</f>
-        <v>274.39999999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>0.93</v>
-      </c>
-      <c r="B32" s="2">
-        <v>141</v>
-      </c>
-      <c r="C32" s="2">
-        <v>42</v>
-      </c>
-      <c r="D32" s="2">
-        <v>50</v>
-      </c>
-      <c r="E32" s="2">
-        <v>48</v>
-      </c>
-      <c r="F32" s="2">
-        <f t="shared" ref="F32:F33" si="4">SUM(B32:E32)</f>
-        <v>281</v>
-      </c>
-      <c r="G32">
-        <f>F32/F31</f>
-        <v>1.0240524781341109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>0.95</v>
-      </c>
-      <c r="B33" s="2">
-        <v>138</v>
-      </c>
-      <c r="C33" s="2">
-        <v>40</v>
-      </c>
-      <c r="D33" s="2">
-        <v>53</v>
-      </c>
-      <c r="E33" s="2">
-        <v>48</v>
-      </c>
-      <c r="F33" s="2">
-        <f t="shared" si="4"/>
-        <v>279</v>
-      </c>
-      <c r="G33">
-        <f>F33/F31</f>
-        <v>1.0167638483965016</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" s="2">
-        <v>145</v>
-      </c>
-      <c r="C37" s="2">
-        <v>41</v>
-      </c>
-      <c r="D37" s="2">
-        <v>53</v>
-      </c>
-      <c r="E37" s="2">
-        <v>44</v>
-      </c>
-      <c r="F37" s="2">
-        <f>SUM(B37:E37)</f>
-        <v>283</v>
-      </c>
-      <c r="G37">
-        <f>F37/F38</f>
-        <v>1.0313411078717203</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>2</v>
-      </c>
-      <c r="B38" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!I$2:I$31)</f>
-        <v>136.26666666666668</v>
-      </c>
-      <c r="C38" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!V$2:V$31)</f>
-        <v>39.299999999999997</v>
-      </c>
-      <c r="D38" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AI$2:AI$31)</f>
-        <v>52.4</v>
-      </c>
-      <c r="E38" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AV$2:AV$31)</f>
-        <v>46.43333333333333</v>
-      </c>
-      <c r="F38" s="2">
-        <f>SUM(B38:E38)</f>
-        <v>274.39999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>3</v>
-      </c>
-      <c r="B39" s="2">
-        <v>140</v>
-      </c>
-      <c r="C39" s="2">
-        <v>40</v>
-      </c>
-      <c r="D39" s="2">
-        <v>53</v>
-      </c>
-      <c r="E39" s="2">
-        <v>45</v>
-      </c>
-      <c r="F39" s="2">
-        <f t="shared" ref="F39" si="5">SUM(B39:E39)</f>
-        <v>278</v>
-      </c>
-      <c r="G39">
-        <f>F39/F38</f>
-        <v>1.0131195335276968</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E426974-02EA-4F3A-8B92-6B3E27CF32A8}">
   <dimension ref="A1:BC31"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AY5" sqref="AY5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2523,15 +1597,15 @@
         <v>15</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:U2" si="2">(W2+AA2)*0.3</f>
+        <f>(W2+AA2)*0.3</f>
         <v>15</v>
       </c>
       <c r="T2">
-        <f t="shared" si="2"/>
+        <f>(X2+AB2)*0.3</f>
         <v>15</v>
       </c>
       <c r="U2">
-        <f t="shared" si="2"/>
+        <f>(Y2+AC2)*0.3</f>
         <v>15</v>
       </c>
       <c r="V2">
@@ -2566,15 +1640,15 @@
         <v>18.899999999999999</v>
       </c>
       <c r="AF2">
-        <f t="shared" ref="AF2:AH2" si="3">(AJ2+AN2)*0.3</f>
+        <f t="shared" ref="AF2:AH2" si="2">(AJ2+AN2)*0.3</f>
         <v>15</v>
       </c>
       <c r="AG2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="AH2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="AI2">
@@ -2609,15 +1683,15 @@
         <v>15</v>
       </c>
       <c r="AS2">
-        <f t="shared" ref="AS2:AU2" si="4">(AW2+BA2)*0.3</f>
+        <f t="shared" ref="AS2:AU2" si="3">(AW2+BA2)*0.3</f>
         <v>15</v>
       </c>
       <c r="AT2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25.5</v>
       </c>
       <c r="AU2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26.4</v>
       </c>
       <c r="AV2">
@@ -2663,7 +1737,7 @@
         <v>74</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:H31" si="5">-(I3+M3)*0.3</f>
+        <f t="shared" ref="E3:H31" si="4">-(I3+M3)*0.3</f>
         <v>-53.4</v>
       </c>
       <c r="F3">
@@ -2679,15 +1753,15 @@
         <v>-37.799999999999997</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:L18" si="6">I2+M2-A3</f>
+        <f t="shared" ref="I3:L18" si="5">I2+M2-A3</f>
         <v>178</v>
       </c>
       <c r="J3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>117</v>
       </c>
       <c r="K3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>141</v>
       </c>
       <c r="L3">
@@ -2710,35 +1784,35 @@
         <v>13</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R31" si="7">(V3+Z3)*0.3</f>
+        <f t="shared" ref="R3:R31" si="6">(V3+Z3)*0.3</f>
         <v>17.7</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S31" si="8">(W3+AA3)*0.3</f>
+        <f t="shared" ref="S3:S31" si="7">(W3+AA3)*0.3</f>
         <v>20.7</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T31" si="9">(X3+AB3)*0.3</f>
+        <f t="shared" ref="T3:T31" si="8">(X3+AB3)*0.3</f>
         <v>19.5</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U31" si="10">(Y3+AC3)*0.3</f>
+        <f t="shared" ref="U3:U31" si="9">(Y3+AC3)*0.3</f>
         <v>21.9</v>
       </c>
       <c r="V3">
-        <f>V2+Z2-$Q3</f>
+        <f t="shared" ref="V3:V31" si="10">V2+Z2-$Q3</f>
         <v>37</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:Y18" si="11">W2+AA2-$Q3</f>
+        <f t="shared" ref="W3:W31" si="11">W2+AA2-$Q3</f>
         <v>37</v>
       </c>
       <c r="X3">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="X3:X31" si="12">X2+AB2-$Q3</f>
         <v>37</v>
       </c>
       <c r="Y3">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="Y3:Y18" si="13">Y2+AC2-$Q3</f>
         <v>37</v>
       </c>
       <c r="Z3">
@@ -2757,19 +1831,19 @@
         <v>20</v>
       </c>
       <c r="AE3">
-        <f t="shared" ref="AE3:AE31" si="12">(AI3+AM3)*0.3</f>
+        <f t="shared" ref="AE3:AE31" si="14">(AI3+AM3)*0.3</f>
         <v>16.8</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF31" si="13">(AJ3+AN3)*0.3</f>
+        <f t="shared" ref="AF3:AF31" si="15">(AJ3+AN3)*0.3</f>
         <v>18.3</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG31" si="14">(AK3+AO3)*0.3</f>
+        <f t="shared" ref="AG3:AG31" si="16">(AK3+AO3)*0.3</f>
         <v>22.2</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH31" si="15">(AL3+AP3)*0.3</f>
+        <f t="shared" ref="AH3:AH31" si="17">(AL3+AP3)*0.3</f>
         <v>24.3</v>
       </c>
       <c r="AI3">
@@ -2777,15 +1851,15 @@
         <v>56</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AL18" si="16">AJ2+AN2-$AD2</f>
+        <f t="shared" ref="AJ3:AL18" si="18">AJ2+AN2-$AD2</f>
         <v>43</v>
       </c>
       <c r="AK3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>43</v>
       </c>
       <c r="AL3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>43</v>
       </c>
       <c r="AM3">
@@ -2804,19 +1878,19 @@
         <v>17</v>
       </c>
       <c r="AR3">
-        <f t="shared" ref="AR3:AR31" si="17">(AV3+AZ3)*0.3</f>
+        <f t="shared" ref="AR3:AR31" si="19">(AV3+AZ3)*0.3</f>
         <v>9.9</v>
       </c>
       <c r="AS3">
-        <f t="shared" ref="AS3:AS31" si="18">(AW3+BA3)*0.3</f>
+        <f t="shared" ref="AS3:AS31" si="20">(AW3+BA3)*0.3</f>
         <v>19.8</v>
       </c>
       <c r="AT3">
-        <f t="shared" ref="AT3:AT31" si="19">(AX3+BB3)*0.3</f>
+        <f t="shared" ref="AT3:AT31" si="21">(AX3+BB3)*0.3</f>
         <v>20.399999999999999</v>
       </c>
       <c r="AU3">
-        <f t="shared" ref="AU3:AU31" si="20">(AY3+BC3)*0.3</f>
+        <f t="shared" ref="AU3:AU31" si="22">(AY3+BC3)*0.3</f>
         <v>21.3</v>
       </c>
       <c r="AV3">
@@ -2824,15 +1898,15 @@
         <v>33</v>
       </c>
       <c r="AW3">
-        <f t="shared" ref="AW3:AY18" si="21">AW2+BA2-$AQ3</f>
+        <f t="shared" ref="AW3:AY18" si="23">AW2+BA2-$AQ3</f>
         <v>33</v>
       </c>
       <c r="AX3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>68</v>
       </c>
       <c r="AY3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>71</v>
       </c>
       <c r="AZ3">
@@ -2866,8 +1940,8 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="5"/>
-        <v>-55.199999999999996</v>
+        <f t="shared" si="4"/>
+        <v>-58.199999999999996</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
@@ -2882,23 +1956,23 @@
         <v>-37.799999999999997</v>
       </c>
       <c r="I4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>128</v>
       </c>
       <c r="J4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>164</v>
       </c>
       <c r="K4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>141</v>
       </c>
       <c r="L4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>126</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -2913,23 +1987,23 @@
         <v>10</v>
       </c>
       <c r="R4">
+        <f t="shared" si="6"/>
+        <v>14.7</v>
+      </c>
+      <c r="S4">
         <f t="shared" si="7"/>
-        <v>14.7</v>
-      </c>
-      <c r="S4">
+        <v>17.7</v>
+      </c>
+      <c r="T4">
         <f t="shared" si="8"/>
-        <v>17.7</v>
-      </c>
-      <c r="T4">
+        <v>16.5</v>
+      </c>
+      <c r="U4">
         <f t="shared" si="9"/>
-        <v>16.5</v>
-      </c>
-      <c r="U4">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="V4">
         <f t="shared" si="10"/>
-        <v>18.899999999999999</v>
-      </c>
-      <c r="V4">
-        <f t="shared" ref="V4:Y19" si="22">V3+Z3-$Q4</f>
         <v>49</v>
       </c>
       <c r="W4">
@@ -2937,11 +2011,11 @@
         <v>59</v>
       </c>
       <c r="X4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>55</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>63</v>
       </c>
       <c r="Z4">
@@ -2960,35 +2034,35 @@
         <v>3</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>17.399999999999999</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="13"/>
-        <v>18.3</v>
-      </c>
-      <c r="AG4">
-        <f t="shared" si="14"/>
-        <v>16.2</v>
-      </c>
-      <c r="AH4">
         <f t="shared" si="15"/>
         <v>18.3</v>
       </c>
+      <c r="AG4">
+        <f t="shared" si="16"/>
+        <v>16.2</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="17"/>
+        <v>18.3</v>
+      </c>
       <c r="AI4">
-        <f t="shared" ref="AI4:AL19" si="23">AI3+AM3-$AD3</f>
+        <f t="shared" ref="AI4:AL19" si="24">AI3+AM3-$AD3</f>
         <v>36</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>41</v>
       </c>
       <c r="AK4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>54</v>
       </c>
       <c r="AL4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>61</v>
       </c>
       <c r="AM4">
@@ -3007,35 +2081,35 @@
         <v>8</v>
       </c>
       <c r="AR4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>15.899999999999999</v>
       </c>
       <c r="AS4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>17.399999999999999</v>
       </c>
       <c r="AT4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="AU4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>18.899999999999999</v>
       </c>
       <c r="AV4">
-        <f t="shared" ref="AV4:AY19" si="24">AV3+AZ3-$AQ4</f>
+        <f t="shared" ref="AV4:AY19" si="25">AV3+AZ3-$AQ4</f>
         <v>25</v>
       </c>
       <c r="AW4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>58</v>
       </c>
       <c r="AX4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>60</v>
       </c>
       <c r="AY4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>63</v>
       </c>
       <c r="AZ4">
@@ -3069,8 +2143,8 @@
         <v>37</v>
       </c>
       <c r="E5">
-        <f t="shared" si="5"/>
-        <v>-55.199999999999996</v>
+        <f t="shared" si="4"/>
+        <v>-58.199999999999996</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
@@ -3078,26 +2152,26 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>-60.9</v>
+        <v>-54.9</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
         <v>-60.3</v>
       </c>
       <c r="I5">
-        <f t="shared" si="6"/>
-        <v>184</v>
+        <f t="shared" si="5"/>
+        <v>194</v>
       </c>
       <c r="J5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>164</v>
       </c>
       <c r="K5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="L5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="M5">
@@ -3107,7 +2181,7 @@
         <v>58</v>
       </c>
       <c r="O5">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="P5">
         <v>112</v>
@@ -3116,23 +2190,23 @@
         <v>17</v>
       </c>
       <c r="R5">
+        <f t="shared" si="6"/>
+        <v>9.6</v>
+      </c>
+      <c r="S5">
         <f t="shared" si="7"/>
-        <v>9.6</v>
-      </c>
-      <c r="S5">
+        <v>12.6</v>
+      </c>
+      <c r="T5">
         <f t="shared" si="8"/>
-        <v>12.6</v>
-      </c>
-      <c r="T5">
+        <v>18</v>
+      </c>
+      <c r="U5">
         <f t="shared" si="9"/>
-        <v>18</v>
-      </c>
-      <c r="U5">
+        <v>13.799999999999999</v>
+      </c>
+      <c r="V5">
         <f t="shared" si="10"/>
-        <v>13.799999999999999</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="22"/>
         <v>32</v>
       </c>
       <c r="W5">
@@ -3140,11 +2214,11 @@
         <v>42</v>
       </c>
       <c r="X5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>38</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>46</v>
       </c>
       <c r="Z5">
@@ -3163,35 +2237,35 @@
         <v>12</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>16.5</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="13"/>
-        <v>17.399999999999999</v>
-      </c>
-      <c r="AG5">
-        <f t="shared" si="14"/>
-        <v>15.299999999999999</v>
-      </c>
-      <c r="AH5">
         <f t="shared" si="15"/>
         <v>17.399999999999999</v>
       </c>
+      <c r="AG5">
+        <f t="shared" si="16"/>
+        <v>15.299999999999999</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="17"/>
+        <v>17.399999999999999</v>
+      </c>
       <c r="AI5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>55</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>58</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>51</v>
       </c>
       <c r="AL5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>58</v>
       </c>
       <c r="AM5">
@@ -3210,35 +2284,35 @@
         <v>20</v>
       </c>
       <c r="AR5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.9</v>
       </c>
       <c r="AS5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>11.4</v>
       </c>
       <c r="AT5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>22.2</v>
       </c>
       <c r="AU5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>24</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>33</v>
       </c>
       <c r="AW5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>38</v>
       </c>
       <c r="AX5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>40</v>
       </c>
       <c r="AY5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>43</v>
       </c>
       <c r="AZ5">
@@ -3269,11 +2343,11 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E6">
-        <f t="shared" si="5"/>
-        <v>-67.8</v>
+        <f t="shared" si="4"/>
+        <v>-70.8</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
@@ -3281,27 +2355,27 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>-54</v>
+        <v>-48</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>-34.199999999999996</v>
+        <v>-36</v>
       </c>
       <c r="I6">
-        <f t="shared" si="6"/>
-        <v>138</v>
+        <f t="shared" si="5"/>
+        <v>148</v>
       </c>
       <c r="J6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>158</v>
       </c>
       <c r="K6">
-        <f t="shared" si="6"/>
-        <v>180</v>
+        <f t="shared" si="5"/>
+        <v>160</v>
       </c>
       <c r="L6">
-        <f t="shared" si="6"/>
-        <v>114</v>
+        <f t="shared" si="5"/>
+        <v>120</v>
       </c>
       <c r="M6">
         <v>88</v>
@@ -3319,23 +2393,23 @@
         <v>6</v>
       </c>
       <c r="R6">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="S6">
         <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="S6">
+        <v>18.599999999999998</v>
+      </c>
+      <c r="T6">
         <f t="shared" si="8"/>
-        <v>18.599999999999998</v>
-      </c>
-      <c r="T6">
+        <v>16.2</v>
+      </c>
+      <c r="U6">
         <f t="shared" si="9"/>
-        <v>16.2</v>
-      </c>
-      <c r="U6">
+        <v>23.4</v>
+      </c>
+      <c r="V6">
         <f t="shared" si="10"/>
-        <v>25.2</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="22"/>
         <v>26</v>
       </c>
       <c r="W6">
@@ -3343,11 +2417,11 @@
         <v>36</v>
       </c>
       <c r="X6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="Z6">
@@ -3360,41 +2434,41 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AD6">
         <v>1</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>12.9</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>13.799999999999999</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>18.599999999999998</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>26.7</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>43</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>46</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>39</v>
       </c>
       <c r="AL6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>46</v>
       </c>
       <c r="AM6">
@@ -3413,35 +2487,35 @@
         <v>1</v>
       </c>
       <c r="AR6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>16.2</v>
       </c>
       <c r="AS6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22.5</v>
       </c>
       <c r="AT6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>21.9</v>
       </c>
       <c r="AU6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>23.7</v>
       </c>
       <c r="AV6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>32</v>
       </c>
       <c r="AW6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
       <c r="AX6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>73</v>
       </c>
       <c r="AY6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>79</v>
       </c>
       <c r="AZ6">
@@ -3475,8 +2549,8 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="5"/>
-        <v>-58.199999999999996</v>
+        <f t="shared" si="4"/>
+        <v>-61.199999999999996</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
@@ -3484,27 +2558,27 @@
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>-73.5</v>
+        <v>-67.5</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>-34.199999999999996</v>
+        <v>-36</v>
       </c>
       <c r="I7">
-        <f t="shared" si="6"/>
-        <v>194</v>
+        <f t="shared" si="5"/>
+        <v>204</v>
       </c>
       <c r="J7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>133</v>
       </c>
       <c r="K7">
-        <f t="shared" si="6"/>
-        <v>180</v>
+        <f t="shared" si="5"/>
+        <v>160</v>
       </c>
       <c r="L7">
-        <f t="shared" si="6"/>
-        <v>114</v>
+        <f t="shared" si="5"/>
+        <v>120</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -3522,23 +2596,23 @@
         <v>20</v>
       </c>
       <c r="R7">
+        <f t="shared" si="6"/>
+        <v>10.5</v>
+      </c>
+      <c r="S7">
         <f t="shared" si="7"/>
-        <v>10.5</v>
-      </c>
-      <c r="S7">
+        <v>12.6</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="8"/>
-        <v>12.6</v>
-      </c>
-      <c r="T7">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="U7">
         <f t="shared" si="9"/>
-        <v>10.199999999999999</v>
-      </c>
-      <c r="U7">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="10"/>
-        <v>19.2</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="22"/>
         <v>30</v>
       </c>
       <c r="W7">
@@ -3546,12 +2620,12 @@
         <v>42</v>
       </c>
       <c r="X7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>34</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="11"/>
-        <v>64</v>
+        <f t="shared" si="13"/>
+        <v>58</v>
       </c>
       <c r="Z7">
         <v>5</v>
@@ -3569,35 +2643,35 @@
         <v>18</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20.099999999999998</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>18.3</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>26.4</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>42</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>45</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>61</v>
       </c>
       <c r="AL7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>88</v>
       </c>
       <c r="AM7">
@@ -3616,35 +2690,35 @@
         <v>12</v>
       </c>
       <c r="AR7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>13.2</v>
       </c>
       <c r="AS7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>18.899999999999999</v>
       </c>
       <c r="AT7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>18.3</v>
       </c>
       <c r="AU7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>20.099999999999998</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>42</v>
       </c>
       <c r="AW7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>63</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>61</v>
       </c>
       <c r="AY7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>67</v>
       </c>
       <c r="AZ7">
@@ -3678,8 +2752,8 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="5"/>
-        <v>-65.7</v>
+        <f t="shared" si="4"/>
+        <v>-71.7</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
@@ -3687,30 +2761,30 @@
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>-65.7</v>
+        <v>-59.699999999999996</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>-34.199999999999996</v>
+        <v>-36</v>
       </c>
       <c r="I8">
-        <f t="shared" si="6"/>
-        <v>151</v>
+        <f t="shared" si="5"/>
+        <v>161</v>
       </c>
       <c r="J8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>163</v>
       </c>
       <c r="K8">
-        <f t="shared" si="6"/>
-        <v>219</v>
+        <f t="shared" si="5"/>
+        <v>199</v>
       </c>
       <c r="L8">
-        <f t="shared" si="6"/>
-        <v>114</v>
+        <f t="shared" si="5"/>
+        <v>120</v>
       </c>
       <c r="M8">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -3725,23 +2799,23 @@
         <v>8</v>
       </c>
       <c r="R8">
+        <f t="shared" si="6"/>
+        <v>13.2</v>
+      </c>
+      <c r="S8">
         <f t="shared" si="7"/>
-        <v>13.2</v>
-      </c>
-      <c r="S8">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="8"/>
-        <v>10.199999999999999</v>
-      </c>
-      <c r="T8">
+        <v>15.6</v>
+      </c>
+      <c r="U8">
         <f t="shared" si="9"/>
-        <v>15.6</v>
-      </c>
-      <c r="U8">
+        <v>15</v>
+      </c>
+      <c r="V8">
         <f t="shared" si="10"/>
-        <v>16.8</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="22"/>
         <v>27</v>
       </c>
       <c r="W8">
@@ -3749,12 +2823,12 @@
         <v>34</v>
       </c>
       <c r="X8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>26</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="11"/>
-        <v>56</v>
+        <f t="shared" si="13"/>
+        <v>50</v>
       </c>
       <c r="Z8">
         <v>17</v>
@@ -3772,35 +2846,35 @@
         <v>5</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>14.7</v>
       </c>
       <c r="AF8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>15.6</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>12.9</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>49</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>52</v>
       </c>
       <c r="AK8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>43</v>
       </c>
       <c r="AL8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>70</v>
       </c>
       <c r="AM8">
@@ -3819,35 +2893,35 @@
         <v>5</v>
       </c>
       <c r="AR8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>19.5</v>
       </c>
       <c r="AS8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>28.2</v>
       </c>
       <c r="AT8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>16.8</v>
       </c>
       <c r="AU8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>18.599999999999998</v>
       </c>
       <c r="AV8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>39</v>
       </c>
       <c r="AW8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>58</v>
       </c>
       <c r="AX8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>56</v>
       </c>
       <c r="AY8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>62</v>
       </c>
       <c r="AZ8">
@@ -3878,11 +2952,11 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E9">
-        <f t="shared" si="5"/>
-        <v>-65.7</v>
+        <f t="shared" si="4"/>
+        <v>-71.7</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
@@ -3890,27 +2964,27 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>-58.8</v>
+        <v>-52.8</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>-45.9</v>
+        <v>-44.4</v>
       </c>
       <c r="I9">
-        <f t="shared" si="6"/>
-        <v>219</v>
+        <f t="shared" si="5"/>
+        <v>239</v>
       </c>
       <c r="J9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="K9">
-        <f t="shared" si="6"/>
-        <v>196</v>
+        <f t="shared" si="5"/>
+        <v>176</v>
       </c>
       <c r="L9">
-        <f t="shared" si="6"/>
-        <v>33</v>
+        <f t="shared" si="5"/>
+        <v>46</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -3922,29 +2996,29 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="Q9">
         <v>11</v>
       </c>
       <c r="R9">
+        <f t="shared" si="6"/>
+        <v>9.9</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="7"/>
-        <v>9.9</v>
-      </c>
-      <c r="S9">
+        <v>7.8</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="8"/>
-        <v>7.8</v>
-      </c>
-      <c r="T9">
+        <v>12.299999999999999</v>
+      </c>
+      <c r="U9">
         <f t="shared" si="9"/>
-        <v>12.299999999999999</v>
-      </c>
-      <c r="U9">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="10"/>
-        <v>25.5</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="22"/>
         <v>33</v>
       </c>
       <c r="W9">
@@ -3952,12 +3026,12 @@
         <v>23</v>
       </c>
       <c r="X9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>41</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="11"/>
-        <v>45</v>
+        <f t="shared" si="13"/>
+        <v>39</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -3969,41 +3043,41 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AD9">
         <v>9</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>13.2</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>14.1</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>18.3</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>19.5</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>44</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>47</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>38</v>
       </c>
       <c r="AL9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>65</v>
       </c>
       <c r="AM9">
@@ -4022,35 +3096,35 @@
         <v>19</v>
       </c>
       <c r="AR9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>13.799999999999999</v>
       </c>
       <c r="AS9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22.5</v>
       </c>
       <c r="AT9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>11.1</v>
       </c>
       <c r="AU9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>25.2</v>
       </c>
       <c r="AV9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>46</v>
       </c>
       <c r="AW9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>75</v>
       </c>
       <c r="AX9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
       <c r="AY9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>43</v>
       </c>
       <c r="AZ9">
@@ -4069,7 +3143,7 @@
     <row r="10" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
@@ -4084,8 +3158,8 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="5"/>
-        <v>-53.1</v>
+        <f t="shared" si="4"/>
+        <v>-57.9</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
@@ -4093,27 +3167,27 @@
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>-66</v>
+        <v>-60</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>-45.9</v>
+        <v>-44.4</v>
       </c>
       <c r="I10">
-        <f t="shared" si="6"/>
-        <v>177</v>
+        <f t="shared" si="5"/>
+        <v>193</v>
       </c>
       <c r="J10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>119</v>
       </c>
       <c r="K10">
-        <f t="shared" si="6"/>
-        <v>151</v>
+        <f t="shared" si="5"/>
+        <v>131</v>
       </c>
       <c r="L10">
-        <f t="shared" si="6"/>
-        <v>153</v>
+        <f t="shared" si="5"/>
+        <v>148</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -4131,23 +3205,23 @@
         <v>2</v>
       </c>
       <c r="R10">
+        <f t="shared" si="6"/>
+        <v>9.2999999999999989</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="7"/>
-        <v>9.2999999999999989</v>
-      </c>
-      <c r="S10">
+        <v>13.799999999999999</v>
+      </c>
+      <c r="T10">
         <f t="shared" si="8"/>
-        <v>13.799999999999999</v>
-      </c>
-      <c r="T10">
+        <v>11.7</v>
+      </c>
+      <c r="U10">
         <f t="shared" si="9"/>
-        <v>11.7</v>
-      </c>
-      <c r="U10">
+        <v>21</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="10"/>
-        <v>24.9</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="22"/>
         <v>31</v>
       </c>
       <c r="W10">
@@ -4155,12 +3229,12 @@
         <v>24</v>
       </c>
       <c r="X10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>39</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="11"/>
-        <v>83</v>
+        <f t="shared" si="13"/>
+        <v>70</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -4178,35 +3252,35 @@
         <v>14</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="12"/>
-        <v>17.7</v>
-      </c>
-      <c r="AF10">
-        <f t="shared" si="13"/>
-        <v>17.099999999999998</v>
-      </c>
-      <c r="AG10">
         <f t="shared" si="14"/>
         <v>17.7</v>
       </c>
+      <c r="AF10">
+        <f t="shared" si="15"/>
+        <v>17.099999999999998</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="16"/>
+        <v>17.7</v>
+      </c>
       <c r="AH10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>16.8</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>35</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>38</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>52</v>
       </c>
       <c r="AL10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>56</v>
       </c>
       <c r="AM10">
@@ -4225,39 +3299,39 @@
         <v>14</v>
       </c>
       <c r="AR10">
-        <f t="shared" si="17"/>
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>16.2</v>
       </c>
       <c r="AS10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>18.3</v>
       </c>
       <c r="AT10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>18.3</v>
       </c>
       <c r="AU10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="AV10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>32</v>
       </c>
       <c r="AW10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>61</v>
       </c>
       <c r="AX10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>23</v>
       </c>
       <c r="AY10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>70</v>
       </c>
       <c r="AZ10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BA10">
         <v>0</v>
@@ -4287,8 +3361,8 @@
         <v>38</v>
       </c>
       <c r="E11">
-        <f t="shared" si="5"/>
-        <v>-48.9</v>
+        <f t="shared" si="4"/>
+        <v>-62.699999999999996</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
@@ -4296,30 +3370,30 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>-59.4</v>
+        <v>-53.4</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>-71.099999999999994</v>
+        <v>-69.599999999999994</v>
       </c>
       <c r="I11">
-        <f t="shared" si="6"/>
-        <v>138</v>
+        <f t="shared" si="5"/>
+        <v>154</v>
       </c>
       <c r="J11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>143</v>
       </c>
       <c r="K11">
-        <f t="shared" si="6"/>
-        <v>198</v>
+        <f t="shared" si="5"/>
+        <v>178</v>
       </c>
       <c r="L11">
-        <f t="shared" si="6"/>
-        <v>115</v>
+        <f t="shared" si="5"/>
+        <v>110</v>
       </c>
       <c r="M11">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -4334,23 +3408,23 @@
         <v>15</v>
       </c>
       <c r="R11">
+        <f t="shared" si="6"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="7"/>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="S11">
+        <v>13.799999999999999</v>
+      </c>
+      <c r="T11">
         <f t="shared" si="8"/>
         <v>13.799999999999999</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <f t="shared" si="9"/>
-        <v>13.799999999999999</v>
-      </c>
-      <c r="U11">
+        <v>16.5</v>
+      </c>
+      <c r="V11">
         <f t="shared" si="10"/>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="W11">
@@ -4358,12 +3432,12 @@
         <v>31</v>
       </c>
       <c r="X11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="11"/>
-        <v>68</v>
+        <f t="shared" si="13"/>
+        <v>55</v>
       </c>
       <c r="Z11">
         <v>32</v>
@@ -4381,35 +3455,35 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>15.6</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>19.2</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>13.5</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>45</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>43</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>45</v>
       </c>
       <c r="AL11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>42</v>
       </c>
       <c r="AM11">
@@ -4428,35 +3502,35 @@
         <v>7</v>
       </c>
       <c r="AR11">
-        <f t="shared" si="17"/>
-        <v>12.9</v>
+        <f t="shared" si="19"/>
+        <v>14.1</v>
       </c>
       <c r="AS11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>25.8</v>
       </c>
       <c r="AT11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>16.2</v>
       </c>
       <c r="AU11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>18.899999999999999</v>
       </c>
       <c r="AV11">
-        <f t="shared" si="24"/>
-        <v>43</v>
+        <f t="shared" si="25"/>
+        <v>47</v>
       </c>
       <c r="AW11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>54</v>
       </c>
       <c r="AX11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>54</v>
       </c>
       <c r="AY11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>63</v>
       </c>
       <c r="AZ11">
@@ -4475,7 +3549,7 @@
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -4490,8 +3564,8 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="5"/>
-        <v>-55.5</v>
+        <f t="shared" si="4"/>
+        <v>-67.5</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
@@ -4499,27 +3573,27 @@
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>-71.7</v>
+        <v>-65.7</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>-71.099999999999994</v>
+        <v>-69.599999999999994</v>
       </c>
       <c r="I12">
-        <f t="shared" si="6"/>
-        <v>120</v>
+        <f t="shared" si="5"/>
+        <v>160</v>
       </c>
       <c r="J12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>143</v>
       </c>
       <c r="K12">
-        <f t="shared" si="6"/>
-        <v>167</v>
+        <f t="shared" si="5"/>
+        <v>147</v>
       </c>
       <c r="L12">
-        <f t="shared" si="6"/>
-        <v>237</v>
+        <f t="shared" si="5"/>
+        <v>232</v>
       </c>
       <c r="M12">
         <v>65</v>
@@ -4537,23 +3611,23 @@
         <v>0</v>
       </c>
       <c r="R12">
+        <f t="shared" si="6"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="7"/>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="S12">
+        <v>13.799999999999999</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="8"/>
         <v>13.799999999999999</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <f t="shared" si="9"/>
-        <v>13.799999999999999</v>
-      </c>
-      <c r="U12">
+        <v>16.5</v>
+      </c>
+      <c r="V12">
         <f t="shared" si="10"/>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="22"/>
         <v>48</v>
       </c>
       <c r="W12">
@@ -4561,12 +3635,12 @@
         <v>46</v>
       </c>
       <c r="X12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>46</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="11"/>
-        <v>68</v>
+        <f t="shared" si="13"/>
+        <v>55</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -4584,35 +3658,35 @@
         <v>16</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19.8</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>19.2</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>22.8</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>52</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>64</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>45</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>80</v>
       </c>
       <c r="AM12">
@@ -4631,39 +3705,39 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <f t="shared" si="17"/>
-        <v>21.599999999999998</v>
+        <f t="shared" si="19"/>
+        <v>24.599999999999998</v>
       </c>
       <c r="AS12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>25.8</v>
       </c>
       <c r="AT12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>16.2</v>
       </c>
       <c r="AU12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>18.899999999999999</v>
       </c>
       <c r="AV12">
-        <f t="shared" si="24"/>
-        <v>43</v>
+        <f t="shared" si="25"/>
+        <v>47</v>
       </c>
       <c r="AW12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>86</v>
       </c>
       <c r="AX12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>54</v>
       </c>
       <c r="AY12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>63</v>
       </c>
       <c r="AZ12">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="BA12">
         <v>0</v>
@@ -4678,7 +3752,7 @@
     <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -4693,8 +3767,8 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="5"/>
-        <v>-42.3</v>
+        <f t="shared" si="4"/>
+        <v>-51</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
@@ -4702,27 +3776,27 @@
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>-55.8</v>
+        <v>-49.8</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>-71.099999999999994</v>
+        <v>-69.599999999999994</v>
       </c>
       <c r="I13">
-        <f t="shared" si="6"/>
-        <v>141</v>
+        <f t="shared" si="5"/>
+        <v>170</v>
       </c>
       <c r="J13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>187</v>
       </c>
       <c r="K13">
-        <f t="shared" si="6"/>
-        <v>186</v>
+        <f t="shared" si="5"/>
+        <v>166</v>
       </c>
       <c r="L13">
-        <f t="shared" si="6"/>
-        <v>237</v>
+        <f t="shared" si="5"/>
+        <v>232</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -4740,23 +3814,23 @@
         <v>7</v>
       </c>
       <c r="R13">
+        <f t="shared" si="6"/>
+        <v>22.2</v>
+      </c>
+      <c r="S13">
         <f t="shared" si="7"/>
-        <v>20.7</v>
-      </c>
-      <c r="S13">
+        <v>12.6</v>
+      </c>
+      <c r="T13">
         <f t="shared" si="8"/>
-        <v>12.6</v>
-      </c>
-      <c r="T13">
+        <v>19.5</v>
+      </c>
+      <c r="U13">
         <f t="shared" si="9"/>
-        <v>19.5</v>
-      </c>
-      <c r="U13">
+        <v>14.399999999999999</v>
+      </c>
+      <c r="V13">
         <f t="shared" si="10"/>
-        <v>18.3</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="22"/>
         <v>41</v>
       </c>
       <c r="W13">
@@ -4764,15 +3838,15 @@
         <v>39</v>
       </c>
       <c r="X13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>39</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="11"/>
-        <v>61</v>
+        <f t="shared" si="13"/>
+        <v>48</v>
       </c>
       <c r="Z13">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="AA13">
         <v>3</v>
@@ -4787,39 +3861,39 @@
         <v>11</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="12"/>
-        <v>19.8</v>
+        <f t="shared" si="14"/>
+        <v>21.599999999999998</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>20.099999999999998</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>18</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>19.2</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>48</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>60</v>
       </c>
       <c r="AL13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>64</v>
       </c>
       <c r="AM13">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AN13">
         <v>19</v>
@@ -4834,35 +3908,35 @@
         <v>11</v>
       </c>
       <c r="AR13">
-        <f t="shared" si="17"/>
-        <v>18.3</v>
+        <f t="shared" si="19"/>
+        <v>21.3</v>
       </c>
       <c r="AS13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>22.5</v>
       </c>
       <c r="AT13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
       <c r="AU13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>15.6</v>
       </c>
       <c r="AV13">
-        <f t="shared" si="24"/>
-        <v>61</v>
+        <f t="shared" si="25"/>
+        <v>71</v>
       </c>
       <c r="AW13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>75</v>
       </c>
       <c r="AX13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>43</v>
       </c>
       <c r="AY13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>52</v>
       </c>
       <c r="AZ13">
@@ -4896,8 +3970,8 @@
         <v>72</v>
       </c>
       <c r="E14">
-        <f t="shared" si="5"/>
-        <v>-42.3</v>
+        <f t="shared" si="4"/>
+        <v>-51</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
@@ -4905,27 +3979,27 @@
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>-36.299999999999997</v>
+        <v>-30.299999999999997</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>-49.5</v>
+        <v>-48</v>
       </c>
       <c r="I14">
-        <f t="shared" si="6"/>
-        <v>141</v>
+        <f t="shared" si="5"/>
+        <v>170</v>
       </c>
       <c r="J14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>131</v>
       </c>
       <c r="K14">
-        <f t="shared" si="6"/>
-        <v>121</v>
+        <f t="shared" si="5"/>
+        <v>101</v>
       </c>
       <c r="L14">
-        <f t="shared" si="6"/>
-        <v>165</v>
+        <f t="shared" si="5"/>
+        <v>160</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -4943,36 +4017,36 @@
         <v>18</v>
       </c>
       <c r="R14">
+        <f t="shared" si="6"/>
+        <v>16.8</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="7"/>
         <v>15.299999999999999</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <f t="shared" si="8"/>
-        <v>15.299999999999999</v>
-      </c>
-      <c r="T14">
+        <v>14.1</v>
+      </c>
+      <c r="U14">
         <f t="shared" si="9"/>
-        <v>14.1</v>
-      </c>
-      <c r="U14">
+        <v>19.8</v>
+      </c>
+      <c r="V14">
         <f t="shared" si="10"/>
-        <v>23.7</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="22"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W14">
         <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="X14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>47</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="11"/>
-        <v>43</v>
+        <f t="shared" si="13"/>
+        <v>30</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -4990,35 +4064,35 @@
         <v>19</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="12"/>
-        <v>16.5</v>
+        <f t="shared" si="14"/>
+        <v>18.3</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>16.8</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>23.4</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>15.899999999999999</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="23"/>
-        <v>55</v>
+        <f t="shared" si="24"/>
+        <v>61</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>56</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>49</v>
       </c>
       <c r="AL14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
       <c r="AM14">
@@ -5037,35 +4111,35 @@
         <v>16</v>
       </c>
       <c r="AR14">
-        <f t="shared" si="17"/>
-        <v>13.5</v>
+        <f t="shared" si="19"/>
+        <v>16.5</v>
       </c>
       <c r="AS14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>26.4</v>
       </c>
       <c r="AT14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>27</v>
       </c>
       <c r="AU14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>21.599999999999998</v>
       </c>
       <c r="AV14">
-        <f t="shared" si="24"/>
-        <v>45</v>
+        <f t="shared" si="25"/>
+        <v>55</v>
       </c>
       <c r="AW14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>59</v>
       </c>
       <c r="AX14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>54</v>
       </c>
       <c r="AY14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>36</v>
       </c>
       <c r="AZ14">
@@ -5084,7 +4158,7 @@
     <row r="15" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
@@ -5099,8 +4173,8 @@
         <v>37</v>
       </c>
       <c r="E15">
-        <f t="shared" si="5"/>
-        <v>-41.1</v>
+        <f t="shared" si="4"/>
+        <v>-48.6</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
@@ -5108,27 +4182,27 @@
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>-47.4</v>
+        <v>-41.4</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>-72.899999999999991</v>
+        <v>-71.399999999999991</v>
       </c>
       <c r="I15">
-        <f t="shared" si="6"/>
-        <v>79</v>
+        <f t="shared" si="5"/>
+        <v>104</v>
       </c>
       <c r="J15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>152</v>
       </c>
       <c r="K15">
-        <f t="shared" si="6"/>
-        <v>73</v>
+        <f t="shared" si="5"/>
+        <v>53</v>
       </c>
       <c r="L15">
-        <f t="shared" si="6"/>
-        <v>128</v>
+        <f t="shared" si="5"/>
+        <v>123</v>
       </c>
       <c r="M15">
         <v>58</v>
@@ -5146,39 +4220,39 @@
         <v>3</v>
       </c>
       <c r="R15">
+        <f t="shared" si="6"/>
+        <v>22.8</v>
+      </c>
+      <c r="S15">
         <f t="shared" si="7"/>
-        <v>20.099999999999998</v>
-      </c>
-      <c r="S15">
+        <v>18.599999999999998</v>
+      </c>
+      <c r="T15">
         <f t="shared" si="8"/>
-        <v>18.599999999999998</v>
-      </c>
-      <c r="T15">
+        <v>19.8</v>
+      </c>
+      <c r="U15">
         <f t="shared" si="9"/>
-        <v>19.8</v>
-      </c>
-      <c r="U15">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="V15">
         <f t="shared" si="10"/>
-        <v>22.8</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="22"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="W15">
         <f t="shared" si="11"/>
         <v>48</v>
       </c>
       <c r="X15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="11"/>
-        <v>76</v>
+        <f t="shared" si="13"/>
+        <v>63</v>
       </c>
       <c r="Z15">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA15">
         <v>14</v>
@@ -5193,35 +4267,35 @@
         <v>6</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="12"/>
-        <v>18.899999999999999</v>
+        <f t="shared" si="14"/>
+        <v>20.7</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>15.299999999999999</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>25.5</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>21.3</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="23"/>
-        <v>36</v>
+        <f t="shared" si="24"/>
+        <v>42</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>37</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>59</v>
       </c>
       <c r="AL15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>34</v>
       </c>
       <c r="AM15">
@@ -5240,35 +4314,35 @@
         <v>9</v>
       </c>
       <c r="AR15">
-        <f t="shared" si="17"/>
-        <v>15.6</v>
+        <f t="shared" si="19"/>
+        <v>18.599999999999998</v>
       </c>
       <c r="AS15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>29.4</v>
       </c>
       <c r="AT15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>24.3</v>
       </c>
       <c r="AU15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>18.899999999999999</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="24"/>
-        <v>36</v>
+        <f t="shared" si="25"/>
+        <v>46</v>
       </c>
       <c r="AW15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>79</v>
       </c>
       <c r="AX15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>81</v>
       </c>
       <c r="AY15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>63</v>
       </c>
       <c r="AZ15">
@@ -5295,15 +4369,15 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" si="5"/>
-        <v>-29.4</v>
+        <f t="shared" si="4"/>
+        <v>-36.9</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
@@ -5311,27 +4385,27 @@
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>-42</v>
+        <v>-38.4</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>-72.899999999999991</v>
+        <v>-71.399999999999991</v>
       </c>
       <c r="I16">
-        <f t="shared" si="6"/>
-        <v>98</v>
+        <f t="shared" si="5"/>
+        <v>123</v>
       </c>
       <c r="J16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
       <c r="K16">
-        <f t="shared" si="6"/>
-        <v>140</v>
+        <f t="shared" si="5"/>
+        <v>128</v>
       </c>
       <c r="L16">
-        <f t="shared" si="6"/>
-        <v>243</v>
+        <f t="shared" si="5"/>
+        <v>238</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -5349,36 +4423,36 @@
         <v>12</v>
       </c>
       <c r="R16">
+        <f t="shared" si="6"/>
+        <v>24.3</v>
+      </c>
+      <c r="S16">
         <f t="shared" si="7"/>
-        <v>21.599999999999998</v>
-      </c>
-      <c r="S16">
+        <v>19.8</v>
+      </c>
+      <c r="T16">
         <f t="shared" si="8"/>
-        <v>19.8</v>
-      </c>
-      <c r="T16">
+        <v>19.2</v>
+      </c>
+      <c r="U16">
         <f t="shared" si="9"/>
-        <v>21.599999999999998</v>
-      </c>
-      <c r="U16">
+        <v>15.299999999999999</v>
+      </c>
+      <c r="V16">
         <f t="shared" si="10"/>
-        <v>19.2</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="22"/>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="W16">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="X16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="11"/>
-        <v>64</v>
+        <f t="shared" si="13"/>
+        <v>51</v>
       </c>
       <c r="Z16">
         <v>17</v>
@@ -5387,7 +4461,7 @@
         <v>16</v>
       </c>
       <c r="AB16">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -5396,27 +4470,27 @@
         <v>8</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="12"/>
-        <v>17.099999999999998</v>
+        <f t="shared" si="14"/>
+        <v>18.899999999999999</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>21.9</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>23.7</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>19.5</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="23"/>
-        <v>57</v>
+        <f t="shared" si="24"/>
+        <v>63</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>45</v>
       </c>
       <c r="AK16">
@@ -5424,7 +4498,7 @@
         <v>79</v>
       </c>
       <c r="AL16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>65</v>
       </c>
       <c r="AM16">
@@ -5443,35 +4517,35 @@
         <v>2</v>
       </c>
       <c r="AR16">
-        <f t="shared" si="17"/>
-        <v>21.599999999999998</v>
+        <f t="shared" si="19"/>
+        <v>24.599999999999998</v>
       </c>
       <c r="AS16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>28.799999999999997</v>
       </c>
       <c r="AT16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>23.7</v>
       </c>
       <c r="AU16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>18.3</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="24"/>
-        <v>50</v>
+        <f t="shared" si="25"/>
+        <v>60</v>
       </c>
       <c r="AW16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>96</v>
       </c>
       <c r="AX16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>79</v>
       </c>
       <c r="AY16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>61</v>
       </c>
       <c r="AZ16">
@@ -5505,8 +4579,8 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="5"/>
-        <v>-39.299999999999997</v>
+        <f t="shared" si="4"/>
+        <v>-46.8</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
@@ -5514,27 +4588,27 @@
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>-52.5</v>
+        <v>-48.9</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>-72.899999999999991</v>
+        <v>-71.399999999999991</v>
       </c>
       <c r="I17">
-        <f t="shared" si="6"/>
-        <v>66</v>
+        <f t="shared" si="5"/>
+        <v>91</v>
       </c>
       <c r="J17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>159</v>
       </c>
       <c r="K17">
-        <f t="shared" si="6"/>
-        <v>80</v>
+        <f t="shared" si="5"/>
+        <v>68</v>
       </c>
       <c r="L17">
-        <f t="shared" si="6"/>
-        <v>243</v>
+        <f t="shared" si="5"/>
+        <v>238</v>
       </c>
       <c r="M17">
         <v>65</v>
@@ -5552,36 +4626,36 @@
         <v>9</v>
       </c>
       <c r="R17">
+        <f t="shared" si="6"/>
+        <v>24.3</v>
+      </c>
+      <c r="S17">
         <f t="shared" si="7"/>
-        <v>21.599999999999998</v>
-      </c>
-      <c r="S17">
+        <v>17.099999999999998</v>
+      </c>
+      <c r="T17">
         <f t="shared" si="8"/>
-        <v>17.099999999999998</v>
-      </c>
-      <c r="T17">
+        <v>24</v>
+      </c>
+      <c r="U17">
         <f t="shared" si="9"/>
-        <v>26.4</v>
-      </c>
-      <c r="U17">
+        <v>12.6</v>
+      </c>
+      <c r="V17">
         <f t="shared" si="10"/>
-        <v>16.5</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="22"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="W17">
         <f t="shared" si="11"/>
         <v>57</v>
       </c>
       <c r="X17">
-        <f t="shared" si="11"/>
-        <v>63</v>
+        <f t="shared" si="12"/>
+        <v>55</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="11"/>
-        <v>55</v>
+        <f t="shared" si="13"/>
+        <v>42</v>
       </c>
       <c r="Z17">
         <v>9</v>
@@ -5599,35 +4673,35 @@
         <v>15</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
+        <v>23.4</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="15"/>
         <v>21.599999999999998</v>
       </c>
-      <c r="AF17">
-        <f t="shared" si="13"/>
-        <v>21.599999999999998</v>
-      </c>
       <c r="AG17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>22.2</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>17.099999999999998</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="23"/>
-        <v>49</v>
+        <f t="shared" si="24"/>
+        <v>55</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>65</v>
       </c>
       <c r="AK17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>71</v>
       </c>
       <c r="AL17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>57</v>
       </c>
       <c r="AM17">
@@ -5646,35 +4720,35 @@
         <v>15</v>
       </c>
       <c r="AR17">
-        <f t="shared" si="17"/>
-        <v>17.099999999999998</v>
+        <f t="shared" si="19"/>
+        <v>20.099999999999998</v>
       </c>
       <c r="AS17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>24.3</v>
       </c>
       <c r="AT17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>28.799999999999997</v>
       </c>
       <c r="AU17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>13.799999999999999</v>
       </c>
       <c r="AV17">
-        <f t="shared" si="24"/>
-        <v>57</v>
+        <f t="shared" si="25"/>
+        <v>67</v>
       </c>
       <c r="AW17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>81</v>
       </c>
       <c r="AX17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>64</v>
       </c>
       <c r="AY17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>46</v>
       </c>
       <c r="AZ17">
@@ -5692,52 +4766,52 @@
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f t="shared" ref="A18:D46" si="25">Z18+AM18+AZ18</f>
+        <f t="shared" ref="A18:D31" si="26">Z18+AM18+AZ18</f>
         <v>0</v>
       </c>
       <c r="B18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>20</v>
       </c>
       <c r="D18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>42</v>
       </c>
       <c r="E18">
+        <f t="shared" si="4"/>
+        <v>-46.8</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>-69</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>-42.9</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>-58.8</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="5"/>
-        <v>-39.299999999999997</v>
-      </c>
-      <c r="F18">
+        <v>156</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="5"/>
-        <v>-69</v>
-      </c>
-      <c r="G18">
+        <v>230</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="5"/>
-        <v>-46.5</v>
-      </c>
-      <c r="H18">
+        <v>143</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="5"/>
-        <v>-60.3</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="6"/>
-        <v>131</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="6"/>
-        <v>230</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="6"/>
-        <v>155</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="6"/>
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -5755,36 +4829,36 @@
         <v>1</v>
       </c>
       <c r="R18">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="S18">
         <f t="shared" si="7"/>
-        <v>21.3</v>
-      </c>
-      <c r="S18">
+        <v>19.5</v>
+      </c>
+      <c r="T18">
         <f t="shared" si="8"/>
-        <v>19.5</v>
-      </c>
-      <c r="T18">
+        <v>23.7</v>
+      </c>
+      <c r="U18">
         <f t="shared" si="9"/>
-        <v>26.099999999999998</v>
-      </c>
-      <c r="U18">
+        <v>12.299999999999999</v>
+      </c>
+      <c r="V18">
         <f t="shared" si="10"/>
-        <v>16.2</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="22"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="W18">
         <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="X18">
-        <f t="shared" si="11"/>
-        <v>87</v>
+        <f t="shared" si="12"/>
+        <v>79</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="11"/>
-        <v>54</v>
+        <f t="shared" si="13"/>
+        <v>41</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -5802,35 +4876,35 @@
         <v>2</v>
       </c>
       <c r="AE18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="15"/>
         <v>17.099999999999998</v>
       </c>
-      <c r="AF18">
-        <f t="shared" si="13"/>
-        <v>17.099999999999998</v>
-      </c>
       <c r="AG18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>23.7</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>25.2</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
+        <v>63</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="18"/>
         <v>57</v>
       </c>
-      <c r="AJ18">
-        <f t="shared" si="16"/>
-        <v>57</v>
-      </c>
       <c r="AK18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>59</v>
       </c>
       <c r="AL18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>42</v>
       </c>
       <c r="AM18">
@@ -5849,35 +4923,35 @@
         <v>4</v>
       </c>
       <c r="AR18">
-        <f t="shared" si="17"/>
-        <v>15.899999999999999</v>
+        <f t="shared" si="19"/>
+        <v>18.899999999999999</v>
       </c>
       <c r="AS18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>23.099999999999998</v>
       </c>
       <c r="AT18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>27.599999999999998</v>
       </c>
       <c r="AU18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>12.6</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="24"/>
-        <v>53</v>
+        <f t="shared" si="25"/>
+        <v>63</v>
       </c>
       <c r="AW18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>77</v>
       </c>
       <c r="AX18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>92</v>
       </c>
       <c r="AY18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>42</v>
       </c>
       <c r="AZ18">
@@ -5895,52 +4969,52 @@
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" si="25"/>
-        <v>49</v>
+        <f t="shared" si="26"/>
+        <v>47</v>
       </c>
       <c r="B19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>56</v>
       </c>
       <c r="C19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>25</v>
       </c>
       <c r="D19">
-        <f t="shared" si="25"/>
-        <v>80</v>
+        <f t="shared" si="26"/>
+        <v>74</v>
       </c>
       <c r="E19">
-        <f t="shared" si="5"/>
-        <v>-50.4</v>
+        <f t="shared" si="4"/>
+        <v>-58.5</v>
       </c>
       <c r="F19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-52.199999999999996</v>
       </c>
       <c r="G19">
-        <f t="shared" si="5"/>
-        <v>-39</v>
+        <f t="shared" si="4"/>
+        <v>-35.4</v>
       </c>
       <c r="H19">
-        <f t="shared" si="5"/>
-        <v>-72.3</v>
+        <f t="shared" si="4"/>
+        <v>-72.599999999999994</v>
       </c>
       <c r="I19">
-        <f t="shared" ref="I19:L31" si="26">I18+M18-A19</f>
-        <v>82</v>
+        <f t="shared" ref="I19:L31" si="27">I18+M18-A19</f>
+        <v>109</v>
       </c>
       <c r="J19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>174</v>
       </c>
       <c r="K19">
-        <f t="shared" si="26"/>
-        <v>130</v>
+        <f t="shared" si="27"/>
+        <v>118</v>
       </c>
       <c r="L19">
-        <f t="shared" si="26"/>
-        <v>121</v>
+        <f t="shared" si="27"/>
+        <v>122</v>
       </c>
       <c r="M19">
         <v>86</v>
@@ -5958,36 +5032,36 @@
         <v>16</v>
       </c>
       <c r="R19">
+        <f t="shared" si="6"/>
+        <v>19.2</v>
+      </c>
+      <c r="S19">
         <f t="shared" si="7"/>
-        <v>16.5</v>
-      </c>
-      <c r="S19">
+        <v>22.8</v>
+      </c>
+      <c r="T19">
         <f t="shared" si="8"/>
-        <v>22.8</v>
-      </c>
-      <c r="T19">
+        <v>25.5</v>
+      </c>
+      <c r="U19">
         <f t="shared" si="9"/>
-        <v>27.9</v>
-      </c>
-      <c r="U19">
+        <v>17.099999999999998</v>
+      </c>
+      <c r="V19">
         <f t="shared" si="10"/>
-        <v>22.8</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="22"/>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="W19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>49</v>
       </c>
       <c r="X19">
-        <f t="shared" si="22"/>
-        <v>71</v>
+        <f t="shared" si="12"/>
+        <v>63</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="22"/>
-        <v>38</v>
+        <f t="shared" ref="Y19" si="28">Y18+AC18-$Q19</f>
+        <v>25</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -5999,45 +5073,45 @@
         <v>22</v>
       </c>
       <c r="AC19">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AD19">
         <v>10</v>
       </c>
       <c r="AE19">
-        <f t="shared" si="12"/>
-        <v>22.5</v>
+        <f t="shared" si="14"/>
+        <v>23.7</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>25.2</v>
       </c>
       <c r="AG19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="AH19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>24.599999999999998</v>
       </c>
       <c r="AI19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
+        <v>61</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="24"/>
         <v>55</v>
       </c>
-      <c r="AJ19">
-        <f t="shared" si="23"/>
-        <v>55</v>
-      </c>
       <c r="AK19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>77</v>
       </c>
       <c r="AL19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>82</v>
       </c>
       <c r="AM19">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AN19">
         <v>29</v>
@@ -6052,35 +5126,35 @@
         <v>10</v>
       </c>
       <c r="AR19">
-        <f t="shared" si="17"/>
-        <v>21.599999999999998</v>
-      </c>
-      <c r="AS19">
-        <f t="shared" si="18"/>
-        <v>20.099999999999998</v>
-      </c>
-      <c r="AT19">
         <f t="shared" si="19"/>
         <v>24.599999999999998</v>
       </c>
+      <c r="AS19">
+        <f t="shared" si="20"/>
+        <v>20.099999999999998</v>
+      </c>
+      <c r="AT19">
+        <f t="shared" si="21"/>
+        <v>24.599999999999998</v>
+      </c>
       <c r="AU19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>22.2</v>
       </c>
       <c r="AV19">
-        <f t="shared" si="24"/>
-        <v>43</v>
+        <f t="shared" si="25"/>
+        <v>53</v>
       </c>
       <c r="AW19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>67</v>
       </c>
       <c r="AX19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>82</v>
       </c>
       <c r="AY19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>32</v>
       </c>
       <c r="AZ19">
@@ -6098,52 +5172,52 @@
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>41</v>
       </c>
       <c r="B20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>36</v>
       </c>
       <c r="C20">
-        <f t="shared" si="25"/>
-        <v>26</v>
+        <f t="shared" si="26"/>
+        <v>3</v>
       </c>
       <c r="D20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="5"/>
-        <v>-38.1</v>
+        <f t="shared" si="4"/>
+        <v>-46.199999999999996</v>
       </c>
       <c r="F20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-62.099999999999994</v>
       </c>
       <c r="G20">
-        <f t="shared" si="5"/>
-        <v>-60.599999999999994</v>
+        <f t="shared" si="4"/>
+        <v>-63.9</v>
       </c>
       <c r="H20">
-        <f t="shared" si="5"/>
-        <v>-72.3</v>
+        <f t="shared" si="4"/>
+        <v>-72.599999999999994</v>
       </c>
       <c r="I20">
-        <f t="shared" si="26"/>
-        <v>127</v>
+        <f t="shared" si="27"/>
+        <v>154</v>
       </c>
       <c r="J20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>138</v>
       </c>
       <c r="K20">
-        <f t="shared" si="26"/>
-        <v>104</v>
+        <f t="shared" si="27"/>
+        <v>115</v>
       </c>
       <c r="L20">
-        <f t="shared" si="26"/>
-        <v>241</v>
+        <f t="shared" si="27"/>
+        <v>242</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -6161,36 +5235,36 @@
         <v>5</v>
       </c>
       <c r="R20">
+        <f t="shared" si="6"/>
+        <v>25.2</v>
+      </c>
+      <c r="S20">
         <f t="shared" si="7"/>
-        <v>22.5</v>
-      </c>
-      <c r="S20">
+        <v>21.3</v>
+      </c>
+      <c r="T20">
         <f t="shared" si="8"/>
-        <v>21.3</v>
-      </c>
-      <c r="T20">
+        <v>24</v>
+      </c>
+      <c r="U20">
         <f t="shared" si="9"/>
-        <v>33.299999999999997</v>
-      </c>
-      <c r="U20">
+        <v>15.6</v>
+      </c>
+      <c r="V20">
         <f t="shared" si="10"/>
-        <v>21.3</v>
-      </c>
-      <c r="V20">
-        <f t="shared" ref="V20:Y31" si="27">V19+Z19-$Q20</f>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="W20">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>71</v>
       </c>
       <c r="X20">
-        <f t="shared" si="27"/>
-        <v>88</v>
+        <f t="shared" si="12"/>
+        <v>80</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="27"/>
-        <v>71</v>
+        <f t="shared" ref="Y20:Y31" si="29">Y19+AC19-$Q20</f>
+        <v>52</v>
       </c>
       <c r="Z20">
         <v>25</v>
@@ -6199,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -6208,35 +5282,35 @@
         <v>13</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="12"/>
-        <v>24.3</v>
+        <f t="shared" si="14"/>
+        <v>25.5</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>25.2</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>21.9</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>21.599999999999998</v>
       </c>
       <c r="AI20">
-        <f t="shared" ref="AI20:AL31" si="28">AI19+AM19-$AD19</f>
-        <v>65</v>
+        <f t="shared" ref="AI20:AL31" si="30">AI19+AM19-$AD19</f>
+        <v>69</v>
       </c>
       <c r="AJ20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>74</v>
       </c>
       <c r="AK20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>70</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>72</v>
       </c>
       <c r="AM20">
@@ -6255,35 +5329,35 @@
         <v>13</v>
       </c>
       <c r="AR20">
-        <f t="shared" si="17"/>
-        <v>17.7</v>
-      </c>
-      <c r="AS20">
-        <f t="shared" si="18"/>
-        <v>24</v>
-      </c>
-      <c r="AT20">
         <f t="shared" si="19"/>
         <v>20.7</v>
       </c>
+      <c r="AS20">
+        <f t="shared" si="20"/>
+        <v>24</v>
+      </c>
+      <c r="AT20">
+        <f t="shared" si="21"/>
+        <v>20.7</v>
+      </c>
       <c r="AU20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>18.3</v>
       </c>
       <c r="AV20">
-        <f t="shared" ref="AV20:AY31" si="29">AV19+AZ19-$AQ20</f>
-        <v>59</v>
+        <f t="shared" ref="AV20:AY31" si="31">AV19+AZ19-$AQ20</f>
+        <v>69</v>
       </c>
       <c r="AW20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>54</v>
       </c>
       <c r="AX20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>69</v>
       </c>
       <c r="AY20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>61</v>
       </c>
       <c r="AZ20">
@@ -6301,52 +5375,52 @@
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
       <c r="B21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="C21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>13</v>
       </c>
       <c r="D21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>41</v>
       </c>
       <c r="E21">
-        <f t="shared" si="5"/>
-        <v>-28.799999999999997</v>
+        <f t="shared" si="4"/>
+        <v>-36.9</v>
       </c>
       <c r="F21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-61.199999999999996</v>
       </c>
       <c r="G21">
-        <f t="shared" si="5"/>
-        <v>-56.699999999999996</v>
+        <f t="shared" si="4"/>
+        <v>-60</v>
       </c>
       <c r="H21">
-        <f t="shared" si="5"/>
-        <v>-60</v>
+        <f t="shared" si="4"/>
+        <v>-60.3</v>
       </c>
       <c r="I21">
-        <f t="shared" si="26"/>
-        <v>96</v>
+        <f t="shared" si="27"/>
+        <v>123</v>
       </c>
       <c r="J21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>204</v>
       </c>
       <c r="K21">
-        <f t="shared" si="26"/>
-        <v>189</v>
+        <f t="shared" si="27"/>
+        <v>200</v>
       </c>
       <c r="L21">
-        <f t="shared" si="26"/>
-        <v>200</v>
+        <f t="shared" si="27"/>
+        <v>201</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -6364,36 +5438,36 @@
         <v>14</v>
       </c>
       <c r="R21">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="S21">
         <f t="shared" si="7"/>
-        <v>18.3</v>
-      </c>
-      <c r="S21">
+        <v>18</v>
+      </c>
+      <c r="T21">
         <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="T21">
+        <v>19.8</v>
+      </c>
+      <c r="U21">
         <f t="shared" si="9"/>
-        <v>29.099999999999998</v>
-      </c>
-      <c r="U21">
+        <v>11.4</v>
+      </c>
+      <c r="V21">
         <f t="shared" si="10"/>
-        <v>17.099999999999998</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="27"/>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="W21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>57</v>
       </c>
       <c r="X21">
-        <f t="shared" si="27"/>
-        <v>97</v>
+        <f t="shared" si="12"/>
+        <v>66</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="27"/>
-        <v>57</v>
+        <f t="shared" si="29"/>
+        <v>38</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -6411,35 +5485,35 @@
         <v>4</v>
       </c>
       <c r="AE21">
-        <f t="shared" si="12"/>
-        <v>24.3</v>
+        <f t="shared" si="14"/>
+        <v>25.5</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>21.3</v>
       </c>
       <c r="AG21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>18</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>17.7</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="28"/>
-        <v>68</v>
+        <f t="shared" si="30"/>
+        <v>72</v>
       </c>
       <c r="AJ21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>71</v>
       </c>
       <c r="AK21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>60</v>
       </c>
       <c r="AL21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>59</v>
       </c>
       <c r="AM21">
@@ -6458,35 +5532,35 @@
         <v>18</v>
       </c>
       <c r="AR21">
-        <f t="shared" si="17"/>
-        <v>17.7</v>
+        <f t="shared" si="19"/>
+        <v>20.7</v>
       </c>
       <c r="AS21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>18.599999999999998</v>
       </c>
       <c r="AT21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>19.2</v>
       </c>
       <c r="AU21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>25.2</v>
       </c>
       <c r="AV21">
-        <f t="shared" si="29"/>
-        <v>41</v>
+        <f t="shared" si="31"/>
+        <v>51</v>
       </c>
       <c r="AW21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>62</v>
       </c>
       <c r="AX21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>51</v>
       </c>
       <c r="AY21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>43</v>
       </c>
       <c r="AZ21">
@@ -6504,52 +5578,52 @@
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>12</v>
       </c>
       <c r="B22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="C22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="D22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>44</v>
       </c>
       <c r="E22">
-        <f t="shared" si="5"/>
-        <v>-48</v>
+        <f t="shared" si="4"/>
+        <v>-56.1</v>
       </c>
       <c r="F22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-76.2</v>
       </c>
       <c r="G22">
-        <f t="shared" si="5"/>
-        <v>-56.699999999999996</v>
+        <f t="shared" si="4"/>
+        <v>-60</v>
       </c>
       <c r="H22">
-        <f t="shared" si="5"/>
-        <v>-46.8</v>
+        <f t="shared" si="4"/>
+        <v>-47.1</v>
       </c>
       <c r="I22">
-        <f t="shared" si="26"/>
-        <v>84</v>
+        <f t="shared" si="27"/>
+        <v>111</v>
       </c>
       <c r="J22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>195</v>
       </c>
       <c r="K22">
-        <f t="shared" si="26"/>
-        <v>189</v>
+        <f t="shared" si="27"/>
+        <v>200</v>
       </c>
       <c r="L22">
-        <f t="shared" si="26"/>
-        <v>156</v>
+        <f t="shared" si="27"/>
+        <v>157</v>
       </c>
       <c r="M22">
         <v>76</v>
@@ -6567,36 +5641,36 @@
         <v>19</v>
       </c>
       <c r="R22">
+        <f t="shared" si="6"/>
+        <v>15.299999999999999</v>
+      </c>
+      <c r="S22">
         <f t="shared" si="7"/>
-        <v>12.6</v>
-      </c>
-      <c r="S22">
+        <v>15</v>
+      </c>
+      <c r="T22">
         <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-      <c r="T22">
+        <v>14.1</v>
+      </c>
+      <c r="U22">
         <f t="shared" si="9"/>
-        <v>23.4</v>
-      </c>
-      <c r="U22">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="V22">
         <f t="shared" si="10"/>
-        <v>24.599999999999998</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="27"/>
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="W22">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>41</v>
       </c>
       <c r="X22">
-        <f t="shared" si="27"/>
-        <v>78</v>
+        <f t="shared" si="12"/>
+        <v>47</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="27"/>
-        <v>38</v>
+        <f t="shared" si="29"/>
+        <v>19</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -6614,35 +5688,35 @@
         <v>17</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="12"/>
-        <v>23.099999999999998</v>
+        <f t="shared" si="14"/>
+        <v>24.3</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>20.099999999999998</v>
       </c>
       <c r="AG22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>16.8</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>16.5</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="28"/>
-        <v>77</v>
+        <f t="shared" si="30"/>
+        <v>81</v>
       </c>
       <c r="AJ22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>67</v>
       </c>
       <c r="AK22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>56</v>
       </c>
       <c r="AL22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>55</v>
       </c>
       <c r="AM22">
@@ -6661,35 +5735,35 @@
         <v>6</v>
       </c>
       <c r="AR22">
-        <f t="shared" si="17"/>
-        <v>19.5</v>
+        <f t="shared" si="19"/>
+        <v>22.5</v>
       </c>
       <c r="AS22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>16.8</v>
       </c>
       <c r="AT22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>17.399999999999999</v>
       </c>
       <c r="AU22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>23.4</v>
       </c>
       <c r="AV22">
-        <f t="shared" si="29"/>
-        <v>53</v>
+        <f t="shared" si="31"/>
+        <v>63</v>
       </c>
       <c r="AW22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>56</v>
       </c>
       <c r="AX22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>58</v>
       </c>
       <c r="AY22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>78</v>
       </c>
       <c r="AZ22">
@@ -6707,52 +5781,52 @@
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>29</v>
       </c>
       <c r="C23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>56</v>
       </c>
       <c r="D23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>39</v>
       </c>
       <c r="E23">
-        <f t="shared" si="5"/>
-        <v>-48</v>
+        <f t="shared" si="4"/>
+        <v>-56.1</v>
       </c>
       <c r="F23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-67.5</v>
       </c>
       <c r="G23">
-        <f t="shared" si="5"/>
-        <v>-66.3</v>
+        <f t="shared" si="4"/>
+        <v>-69.599999999999994</v>
       </c>
       <c r="H23">
-        <f t="shared" si="5"/>
-        <v>-69.899999999999991</v>
+        <f t="shared" si="4"/>
+        <v>-70.2</v>
       </c>
       <c r="I23">
-        <f t="shared" si="26"/>
-        <v>160</v>
+        <f t="shared" si="27"/>
+        <v>187</v>
       </c>
       <c r="J23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>225</v>
       </c>
       <c r="K23">
-        <f t="shared" si="26"/>
-        <v>133</v>
+        <f t="shared" si="27"/>
+        <v>144</v>
       </c>
       <c r="L23">
-        <f t="shared" si="26"/>
-        <v>117</v>
+        <f t="shared" si="27"/>
+        <v>118</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -6770,36 +5844,36 @@
         <v>4</v>
       </c>
       <c r="R23">
+        <f t="shared" si="6"/>
+        <v>14.1</v>
+      </c>
+      <c r="S23">
         <f t="shared" si="7"/>
-        <v>11.4</v>
-      </c>
-      <c r="S23">
+        <v>18.599999999999998</v>
+      </c>
+      <c r="T23">
         <f t="shared" si="8"/>
-        <v>18.599999999999998</v>
-      </c>
-      <c r="T23">
+        <v>21.3</v>
+      </c>
+      <c r="U23">
         <f t="shared" si="9"/>
-        <v>30.599999999999998</v>
-      </c>
-      <c r="U23">
+        <v>17.7</v>
+      </c>
+      <c r="V23">
         <f t="shared" si="10"/>
-        <v>23.4</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="27"/>
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="W23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>46</v>
       </c>
       <c r="X23">
-        <f t="shared" si="27"/>
-        <v>74</v>
+        <f t="shared" si="12"/>
+        <v>43</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="27"/>
-        <v>78</v>
+        <f t="shared" si="29"/>
+        <v>59</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -6817,35 +5891,35 @@
         <v>7</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="12"/>
-        <v>18</v>
+        <f t="shared" si="14"/>
+        <v>19.2</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>18.899999999999999</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>20.099999999999998</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>23.099999999999998</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="28"/>
-        <v>60</v>
+        <f t="shared" si="30"/>
+        <v>64</v>
       </c>
       <c r="AJ23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="AK23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>39</v>
       </c>
       <c r="AL23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>38</v>
       </c>
       <c r="AM23">
@@ -6864,35 +5938,35 @@
         <v>7</v>
       </c>
       <c r="AR23">
-        <f t="shared" si="17"/>
-        <v>17.399999999999999</v>
+        <f t="shared" si="19"/>
+        <v>20.399999999999999</v>
       </c>
       <c r="AS23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>14.7</v>
       </c>
       <c r="AT23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>15.299999999999999</v>
       </c>
       <c r="AU23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>21.3</v>
       </c>
       <c r="AV23">
-        <f t="shared" si="29"/>
-        <v>58</v>
+        <f t="shared" si="31"/>
+        <v>68</v>
       </c>
       <c r="AW23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>49</v>
       </c>
       <c r="AX23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>51</v>
       </c>
       <c r="AY23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>71</v>
       </c>
       <c r="AZ23">
@@ -6910,52 +5984,52 @@
     </row>
     <row r="24" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>59</v>
       </c>
       <c r="B24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>42</v>
       </c>
       <c r="C24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>35</v>
       </c>
       <c r="D24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E24">
-        <f t="shared" si="5"/>
-        <v>-46.5</v>
+        <f t="shared" si="4"/>
+        <v>-54.6</v>
       </c>
       <c r="F24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-78.899999999999991</v>
       </c>
       <c r="G24">
-        <f t="shared" si="5"/>
-        <v>-55.8</v>
+        <f t="shared" si="4"/>
+        <v>-59.099999999999994</v>
       </c>
       <c r="H24">
-        <f t="shared" si="5"/>
-        <v>-69.899999999999991</v>
+        <f t="shared" si="4"/>
+        <v>-70.2</v>
       </c>
       <c r="I24">
-        <f t="shared" si="26"/>
-        <v>101</v>
+        <f t="shared" si="27"/>
+        <v>128</v>
       </c>
       <c r="J24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>183</v>
       </c>
       <c r="K24">
-        <f t="shared" si="26"/>
-        <v>186</v>
+        <f t="shared" si="27"/>
+        <v>197</v>
       </c>
       <c r="L24">
-        <f t="shared" si="26"/>
-        <v>233</v>
+        <f t="shared" si="27"/>
+        <v>234</v>
       </c>
       <c r="M24">
         <v>54</v>
@@ -6973,36 +6047,36 @@
         <v>10</v>
       </c>
       <c r="R24">
+        <f t="shared" si="6"/>
+        <v>17.7</v>
+      </c>
+      <c r="S24">
         <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="S24">
+        <v>18.3</v>
+      </c>
+      <c r="T24">
         <f t="shared" si="8"/>
         <v>18.3</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <f t="shared" si="9"/>
-        <v>27.599999999999998</v>
-      </c>
-      <c r="U24">
+        <v>14.7</v>
+      </c>
+      <c r="V24">
         <f t="shared" si="10"/>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="27"/>
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="W24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>52</v>
       </c>
       <c r="X24">
-        <f t="shared" si="27"/>
-        <v>92</v>
+        <f t="shared" si="12"/>
+        <v>61</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="27"/>
-        <v>68</v>
+        <f t="shared" si="29"/>
+        <v>49</v>
       </c>
       <c r="Z24">
         <v>22</v>
@@ -7020,35 +6094,35 @@
         <v>12</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="12"/>
-        <v>21.9</v>
+        <f t="shared" si="14"/>
+        <v>23.099999999999998</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>17.7</v>
       </c>
       <c r="AG24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>18.899999999999999</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="28"/>
-        <v>53</v>
+        <f t="shared" si="30"/>
+        <v>57</v>
       </c>
       <c r="AJ24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>56</v>
       </c>
       <c r="AK24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>60</v>
       </c>
       <c r="AL24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>70</v>
       </c>
       <c r="AM24">
@@ -7067,35 +6141,35 @@
         <v>12</v>
       </c>
       <c r="AR24">
-        <f t="shared" si="17"/>
-        <v>18.899999999999999</v>
+        <f t="shared" si="19"/>
+        <v>21.9</v>
       </c>
       <c r="AS24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>20.099999999999998</v>
       </c>
       <c r="AT24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>21.3</v>
       </c>
       <c r="AU24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>17.7</v>
       </c>
       <c r="AV24">
-        <f t="shared" si="29"/>
-        <v>46</v>
+        <f t="shared" si="31"/>
+        <v>56</v>
       </c>
       <c r="AW24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>37</v>
       </c>
       <c r="AX24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>39</v>
       </c>
       <c r="AY24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>59</v>
       </c>
       <c r="AZ24">
@@ -7113,52 +6187,52 @@
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="B25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>30</v>
       </c>
       <c r="C25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>32</v>
       </c>
       <c r="D25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E25">
-        <f t="shared" si="5"/>
-        <v>-68.399999999999991</v>
+        <f t="shared" si="4"/>
+        <v>-76.5</v>
       </c>
       <c r="F25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-69.899999999999991</v>
       </c>
       <c r="G25">
-        <f t="shared" si="5"/>
-        <v>-65.7</v>
+        <f t="shared" si="4"/>
+        <v>-69</v>
       </c>
       <c r="H25">
-        <f t="shared" si="5"/>
-        <v>-69.899999999999991</v>
+        <f t="shared" si="4"/>
+        <v>-70.2</v>
       </c>
       <c r="I25">
-        <f t="shared" si="26"/>
-        <v>155</v>
+        <f t="shared" si="27"/>
+        <v>182</v>
       </c>
       <c r="J25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>233</v>
       </c>
       <c r="K25">
-        <f t="shared" si="26"/>
-        <v>154</v>
+        <f t="shared" si="27"/>
+        <v>165</v>
       </c>
       <c r="L25">
-        <f t="shared" si="26"/>
-        <v>233</v>
+        <f t="shared" si="27"/>
+        <v>234</v>
       </c>
       <c r="M25">
         <v>73</v>
@@ -7176,36 +6250,36 @@
         <v>6</v>
       </c>
       <c r="R25">
+        <f t="shared" si="6"/>
+        <v>15.899999999999999</v>
+      </c>
+      <c r="S25">
         <f t="shared" si="7"/>
-        <v>13.2</v>
-      </c>
-      <c r="S25">
+        <v>19.2</v>
+      </c>
+      <c r="T25">
         <f t="shared" si="8"/>
-        <v>19.2</v>
-      </c>
-      <c r="T25">
+        <v>16.5</v>
+      </c>
+      <c r="U25">
         <f t="shared" si="9"/>
-        <v>25.8</v>
-      </c>
-      <c r="U25">
+        <v>12.9</v>
+      </c>
+      <c r="V25">
         <f t="shared" si="10"/>
-        <v>18.599999999999998</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="27"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="W25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>55</v>
       </c>
       <c r="X25">
-        <f t="shared" si="27"/>
-        <v>86</v>
+        <f t="shared" si="12"/>
+        <v>55</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="27"/>
-        <v>62</v>
+        <f t="shared" si="29"/>
+        <v>43</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -7223,35 +6297,35 @@
         <v>1</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="12"/>
-        <v>18.3</v>
+        <f t="shared" si="14"/>
+        <v>19.5</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>18.599999999999998</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>24.9</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>17.399999999999999</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="28"/>
-        <v>61</v>
+        <f t="shared" si="30"/>
+        <v>65</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>47</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>51</v>
       </c>
       <c r="AL25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>58</v>
       </c>
       <c r="AM25">
@@ -7270,35 +6344,35 @@
         <v>3</v>
       </c>
       <c r="AR25">
-        <f t="shared" si="17"/>
-        <v>18</v>
+        <f t="shared" si="19"/>
+        <v>21</v>
       </c>
       <c r="AS25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>21</v>
       </c>
       <c r="AT25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>20.399999999999999</v>
       </c>
       <c r="AU25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>16.8</v>
       </c>
       <c r="AV25">
-        <f t="shared" si="29"/>
-        <v>60</v>
+        <f t="shared" si="31"/>
+        <v>70</v>
       </c>
       <c r="AW25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>64</v>
       </c>
       <c r="AX25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>68</v>
       </c>
       <c r="AY25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>56</v>
       </c>
       <c r="AZ25">
@@ -7316,52 +6390,52 @@
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>44</v>
       </c>
       <c r="B26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>33</v>
       </c>
       <c r="C26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>19</v>
       </c>
       <c r="D26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>79</v>
       </c>
       <c r="E26">
-        <f t="shared" si="5"/>
-        <v>-55.199999999999996</v>
+        <f t="shared" si="4"/>
+        <v>-63.3</v>
       </c>
       <c r="F26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-60</v>
       </c>
       <c r="G26">
-        <f t="shared" si="5"/>
-        <v>-60</v>
+        <f t="shared" si="4"/>
+        <v>-63.3</v>
       </c>
       <c r="H26">
-        <f t="shared" si="5"/>
-        <v>-46.199999999999996</v>
+        <f t="shared" si="4"/>
+        <v>-46.5</v>
       </c>
       <c r="I26">
-        <f t="shared" si="26"/>
-        <v>184</v>
+        <f t="shared" si="27"/>
+        <v>211</v>
       </c>
       <c r="J26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>200</v>
       </c>
       <c r="K26">
-        <f t="shared" si="26"/>
-        <v>200</v>
+        <f t="shared" si="27"/>
+        <v>211</v>
       </c>
       <c r="L26">
-        <f t="shared" si="26"/>
-        <v>154</v>
+        <f t="shared" si="27"/>
+        <v>155</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -7379,36 +6453,36 @@
         <v>20</v>
       </c>
       <c r="R26">
+        <f t="shared" si="6"/>
+        <v>9.9</v>
+      </c>
+      <c r="S26">
         <f t="shared" si="7"/>
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="S26">
+        <v>16.8</v>
+      </c>
+      <c r="T26">
         <f t="shared" si="8"/>
-        <v>16.8</v>
-      </c>
-      <c r="T26">
+        <v>15.299999999999999</v>
+      </c>
+      <c r="U26">
         <f t="shared" si="9"/>
-        <v>24.599999999999998</v>
-      </c>
-      <c r="U26">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="V26">
         <f t="shared" si="10"/>
-        <v>24.599999999999998</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="27"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="W26">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>44</v>
       </c>
       <c r="X26">
-        <f t="shared" si="27"/>
-        <v>66</v>
+        <f t="shared" si="12"/>
+        <v>35</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="27"/>
-        <v>42</v>
+        <f t="shared" si="29"/>
+        <v>23</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -7426,35 +6500,35 @@
         <v>19</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="12"/>
-        <v>23.4</v>
+        <f t="shared" si="14"/>
+        <v>24.599999999999998</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>24.599999999999998</v>
       </c>
       <c r="AG26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>25.5</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>17.099999999999998</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="28"/>
-        <v>60</v>
+        <f t="shared" si="30"/>
+        <v>64</v>
       </c>
       <c r="AJ26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>61</v>
       </c>
       <c r="AK26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>82</v>
       </c>
       <c r="AL26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>57</v>
       </c>
       <c r="AM26">
@@ -7473,35 +6547,35 @@
         <v>19</v>
       </c>
       <c r="AR26">
-        <f t="shared" si="17"/>
-        <v>20.099999999999998</v>
+        <f t="shared" si="19"/>
+        <v>23.099999999999998</v>
       </c>
       <c r="AS26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>15.299999999999999</v>
       </c>
       <c r="AT26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>14.7</v>
       </c>
       <c r="AU26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>22.8</v>
       </c>
       <c r="AV26">
-        <f t="shared" si="29"/>
-        <v>41</v>
+        <f t="shared" si="31"/>
+        <v>51</v>
       </c>
       <c r="AW26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>51</v>
       </c>
       <c r="AX26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>49</v>
       </c>
       <c r="AY26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>37</v>
       </c>
       <c r="AZ26">
@@ -7519,52 +6593,52 @@
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>42</v>
       </c>
       <c r="B27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>32</v>
       </c>
       <c r="C27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>25</v>
       </c>
       <c r="D27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>36</v>
       </c>
       <c r="E27">
-        <f t="shared" si="5"/>
-        <v>-42.6</v>
+        <f t="shared" si="4"/>
+        <v>-50.699999999999996</v>
       </c>
       <c r="F27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-75</v>
       </c>
       <c r="G27">
-        <f t="shared" si="5"/>
-        <v>-75.899999999999991</v>
+        <f t="shared" si="4"/>
+        <v>-79.2</v>
       </c>
       <c r="H27">
-        <f t="shared" si="5"/>
-        <v>-72.599999999999994</v>
+        <f t="shared" si="4"/>
+        <v>-72.899999999999991</v>
       </c>
       <c r="I27">
-        <f t="shared" si="26"/>
-        <v>142</v>
+        <f t="shared" si="27"/>
+        <v>169</v>
       </c>
       <c r="J27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>168</v>
       </c>
       <c r="K27">
-        <f t="shared" si="26"/>
-        <v>175</v>
+        <f t="shared" si="27"/>
+        <v>186</v>
       </c>
       <c r="L27">
-        <f t="shared" si="26"/>
-        <v>118</v>
+        <f t="shared" si="27"/>
+        <v>119</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -7582,36 +6656,36 @@
         <v>8</v>
       </c>
       <c r="R27">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="S27">
         <f t="shared" si="7"/>
-        <v>12.299999999999999</v>
-      </c>
-      <c r="S27">
+        <v>14.399999999999999</v>
+      </c>
+      <c r="T27">
         <f t="shared" si="8"/>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="T27">
+        <v>12.9</v>
+      </c>
+      <c r="U27">
         <f t="shared" si="9"/>
-        <v>22.2</v>
-      </c>
-      <c r="U27">
+        <v>16.5</v>
+      </c>
+      <c r="V27">
         <f t="shared" si="10"/>
-        <v>22.2</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="27"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="W27">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>48</v>
       </c>
       <c r="X27">
-        <f t="shared" si="27"/>
-        <v>74</v>
+        <f t="shared" si="12"/>
+        <v>43</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="27"/>
-        <v>74</v>
+        <f t="shared" si="29"/>
+        <v>55</v>
       </c>
       <c r="Z27">
         <v>25</v>
@@ -7629,35 +6703,35 @@
         <v>5</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="12"/>
-        <v>22.8</v>
+        <f t="shared" si="14"/>
+        <v>24</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
       <c r="AG27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.8</v>
       </c>
       <c r="AH27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>22.2</v>
       </c>
       <c r="AI27">
-        <f t="shared" si="28"/>
-        <v>59</v>
+        <f t="shared" si="30"/>
+        <v>63</v>
       </c>
       <c r="AJ27">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>63</v>
       </c>
       <c r="AK27">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>66</v>
       </c>
       <c r="AL27">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>38</v>
       </c>
       <c r="AM27">
@@ -7676,35 +6750,35 @@
         <v>5</v>
       </c>
       <c r="AR27">
-        <f t="shared" si="17"/>
-        <v>18.599999999999998</v>
+        <f t="shared" si="19"/>
+        <v>21.599999999999998</v>
       </c>
       <c r="AS27">
-        <f t="shared" si="18"/>
-        <v>21.3</v>
-      </c>
-      <c r="AT27">
-        <f t="shared" si="19"/>
-        <v>20.7</v>
-      </c>
-      <c r="AU27">
         <f t="shared" si="20"/>
         <v>21.3</v>
       </c>
+      <c r="AT27">
+        <f t="shared" si="21"/>
+        <v>20.7</v>
+      </c>
+      <c r="AU27">
+        <f t="shared" si="22"/>
+        <v>21.3</v>
+      </c>
       <c r="AV27">
-        <f t="shared" si="29"/>
-        <v>62</v>
+        <f t="shared" si="31"/>
+        <v>72</v>
       </c>
       <c r="AW27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>46</v>
       </c>
       <c r="AX27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>44</v>
       </c>
       <c r="AY27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>71</v>
       </c>
       <c r="AZ27">
@@ -7722,52 +6796,52 @@
     </row>
     <row r="28" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>19</v>
       </c>
       <c r="B28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>56</v>
       </c>
       <c r="C28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>25</v>
       </c>
       <c r="D28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E28">
-        <f t="shared" si="5"/>
-        <v>-47.4</v>
+        <f t="shared" si="4"/>
+        <v>-55.5</v>
       </c>
       <c r="F28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-58.199999999999996</v>
       </c>
       <c r="G28">
-        <f t="shared" si="5"/>
-        <v>-68.399999999999991</v>
+        <f t="shared" si="4"/>
+        <v>-71.7</v>
       </c>
       <c r="H28">
-        <f t="shared" si="5"/>
-        <v>-72.599999999999994</v>
+        <f t="shared" si="4"/>
+        <v>-72.899999999999991</v>
       </c>
       <c r="I28">
-        <f t="shared" si="26"/>
-        <v>123</v>
+        <f t="shared" si="27"/>
+        <v>150</v>
       </c>
       <c r="J28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>194</v>
       </c>
       <c r="K28">
-        <f t="shared" si="26"/>
-        <v>228</v>
+        <f t="shared" si="27"/>
+        <v>239</v>
       </c>
       <c r="L28">
-        <f t="shared" si="26"/>
-        <v>242</v>
+        <f t="shared" si="27"/>
+        <v>243</v>
       </c>
       <c r="M28">
         <v>35</v>
@@ -7785,36 +6859,36 @@
         <v>13</v>
       </c>
       <c r="R28">
+        <f t="shared" si="6"/>
+        <v>11.1</v>
+      </c>
+      <c r="S28">
         <f t="shared" si="7"/>
-        <v>8.4</v>
-      </c>
-      <c r="S28">
+        <v>15</v>
+      </c>
+      <c r="T28">
         <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-      <c r="T28">
+        <v>9</v>
+      </c>
+      <c r="U28">
         <f t="shared" si="9"/>
-        <v>18.3</v>
-      </c>
-      <c r="U28">
+        <v>12.6</v>
+      </c>
+      <c r="V28">
         <f t="shared" si="10"/>
-        <v>18.3</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="27"/>
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="W28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
       <c r="X28">
-        <f t="shared" si="27"/>
-        <v>61</v>
+        <f t="shared" si="12"/>
+        <v>30</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="27"/>
-        <v>61</v>
+        <f t="shared" si="29"/>
+        <v>42</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -7832,35 +6906,35 @@
         <v>20</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="12"/>
-        <v>21.3</v>
+        <f t="shared" si="14"/>
+        <v>22.5</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>26.4</v>
       </c>
       <c r="AG28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>25.8</v>
       </c>
       <c r="AH28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>20.7</v>
       </c>
       <c r="AI28">
-        <f t="shared" si="28"/>
-        <v>71</v>
+        <f t="shared" si="30"/>
+        <v>75</v>
       </c>
       <c r="AJ28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>65</v>
       </c>
       <c r="AK28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>61</v>
       </c>
       <c r="AL28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>69</v>
       </c>
       <c r="AM28">
@@ -7879,35 +6953,35 @@
         <v>8</v>
       </c>
       <c r="AR28">
-        <f t="shared" si="17"/>
-        <v>21.9</v>
+        <f t="shared" si="19"/>
+        <v>24.9</v>
       </c>
       <c r="AS28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>24.3</v>
       </c>
       <c r="AT28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>18.3</v>
       </c>
       <c r="AU28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>18.899999999999999</v>
       </c>
       <c r="AV28">
-        <f t="shared" si="29"/>
-        <v>54</v>
+        <f t="shared" si="31"/>
+        <v>64</v>
       </c>
       <c r="AW28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>63</v>
       </c>
       <c r="AX28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>61</v>
       </c>
       <c r="AY28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>63</v>
       </c>
       <c r="AZ28">
@@ -7925,52 +6999,52 @@
     </row>
     <row r="29" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="B29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>25</v>
       </c>
       <c r="C29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>18</v>
       </c>
       <c r="D29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E29">
-        <f t="shared" si="5"/>
-        <v>-40.799999999999997</v>
+        <f t="shared" si="4"/>
+        <v>-48.9</v>
       </c>
       <c r="F29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-50.699999999999996</v>
       </c>
       <c r="G29">
-        <f t="shared" si="5"/>
-        <v>-63</v>
+        <f t="shared" si="4"/>
+        <v>-66.3</v>
       </c>
       <c r="H29">
-        <f t="shared" si="5"/>
-        <v>-72.599999999999994</v>
+        <f t="shared" si="4"/>
+        <v>-72.899999999999991</v>
       </c>
       <c r="I29">
-        <f t="shared" si="26"/>
-        <v>136</v>
+        <f t="shared" si="27"/>
+        <v>163</v>
       </c>
       <c r="J29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>169</v>
       </c>
       <c r="K29">
-        <f t="shared" si="26"/>
-        <v>210</v>
+        <f t="shared" si="27"/>
+        <v>221</v>
       </c>
       <c r="L29">
-        <f t="shared" si="26"/>
-        <v>242</v>
+        <f t="shared" si="27"/>
+        <v>243</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -7988,36 +7062,36 @@
         <v>2</v>
       </c>
       <c r="R29">
+        <f t="shared" si="6"/>
+        <v>17.099999999999998</v>
+      </c>
+      <c r="S29">
         <f t="shared" si="7"/>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="S29">
+        <v>21.9</v>
+      </c>
+      <c r="T29">
         <f t="shared" si="8"/>
-        <v>21.9</v>
-      </c>
-      <c r="T29">
+        <v>13.799999999999999</v>
+      </c>
+      <c r="U29">
         <f t="shared" si="9"/>
-        <v>23.099999999999998</v>
-      </c>
-      <c r="U29">
+        <v>12</v>
+      </c>
+      <c r="V29">
         <f t="shared" si="10"/>
-        <v>17.7</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="27"/>
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="W29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>48</v>
       </c>
       <c r="X29">
-        <f t="shared" si="27"/>
-        <v>59</v>
+        <f t="shared" si="12"/>
+        <v>28</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="27"/>
-        <v>59</v>
+        <f t="shared" si="29"/>
+        <v>40</v>
       </c>
       <c r="Z29">
         <v>22</v>
@@ -8035,35 +7109,35 @@
         <v>14</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="12"/>
-        <v>15.299999999999999</v>
+        <f t="shared" si="14"/>
+        <v>16.5</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>20.399999999999999</v>
       </c>
       <c r="AG29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>19.8</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>14.7</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="28"/>
-        <v>51</v>
+        <f t="shared" si="30"/>
+        <v>55</v>
       </c>
       <c r="AJ29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>68</v>
       </c>
       <c r="AK29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>66</v>
       </c>
       <c r="AL29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>49</v>
       </c>
       <c r="AM29">
@@ -8082,35 +7156,35 @@
         <v>14</v>
       </c>
       <c r="AR29">
-        <f t="shared" si="17"/>
-        <v>17.7</v>
+        <f t="shared" si="19"/>
+        <v>20.7</v>
       </c>
       <c r="AS29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>20.099999999999998</v>
       </c>
       <c r="AT29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>14.1</v>
       </c>
       <c r="AU29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>14.7</v>
       </c>
       <c r="AV29">
-        <f t="shared" si="29"/>
-        <v>59</v>
+        <f t="shared" si="31"/>
+        <v>69</v>
       </c>
       <c r="AW29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>67</v>
       </c>
       <c r="AX29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>47</v>
       </c>
       <c r="AY29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>49</v>
       </c>
       <c r="AZ29">
@@ -8128,52 +7202,52 @@
     </row>
     <row r="30" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>16</v>
       </c>
       <c r="B30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>18</v>
       </c>
       <c r="C30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>16</v>
       </c>
       <c r="D30">
-        <f t="shared" si="25"/>
-        <v>120</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="5"/>
-        <v>-36</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="5"/>
-        <v>-45.3</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="5"/>
-        <v>-86.399999999999991</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="5"/>
-        <v>-72.599999999999994</v>
-      </c>
-      <c r="I30">
         <f t="shared" si="26"/>
         <v>120</v>
       </c>
+      <c r="E30">
+        <f t="shared" si="4"/>
+        <v>-44.1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>-45.3</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>-89.7</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="4"/>
+        <v>-72.899999999999991</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="27"/>
+        <v>147</v>
+      </c>
       <c r="J30">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>151</v>
       </c>
       <c r="K30">
-        <f t="shared" si="26"/>
-        <v>194</v>
+        <f t="shared" si="27"/>
+        <v>205</v>
       </c>
       <c r="L30">
-        <f t="shared" si="26"/>
-        <v>122</v>
+        <f t="shared" si="27"/>
+        <v>123</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -8191,36 +7265,36 @@
         <v>15</v>
       </c>
       <c r="R30">
+        <f t="shared" si="6"/>
+        <v>12.6</v>
+      </c>
+      <c r="S30">
         <f t="shared" si="7"/>
-        <v>9.9</v>
-      </c>
-      <c r="S30">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="T30">
         <f t="shared" si="8"/>
-        <v>17.399999999999999</v>
-      </c>
-      <c r="T30">
+        <v>13.2</v>
+      </c>
+      <c r="U30">
         <f t="shared" si="9"/>
-        <v>22.5</v>
-      </c>
-      <c r="U30">
+        <v>19.5</v>
+      </c>
+      <c r="V30">
         <f t="shared" si="10"/>
-        <v>25.2</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="27"/>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="W30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>58</v>
       </c>
       <c r="X30">
-        <f t="shared" si="27"/>
-        <v>62</v>
+        <f t="shared" si="12"/>
+        <v>31</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="27"/>
-        <v>44</v>
+        <f t="shared" si="29"/>
+        <v>25</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -8238,35 +7312,35 @@
         <v>9</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="12"/>
-        <v>15.899999999999999</v>
+        <f t="shared" si="14"/>
+        <v>17.099999999999998</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>21.599999999999998</v>
       </c>
       <c r="AG30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>16.5</v>
       </c>
       <c r="AH30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>22.5</v>
       </c>
       <c r="AI30">
-        <f t="shared" si="28"/>
-        <v>37</v>
+        <f t="shared" si="30"/>
+        <v>41</v>
       </c>
       <c r="AJ30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>54</v>
       </c>
       <c r="AK30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>52</v>
       </c>
       <c r="AL30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>35</v>
       </c>
       <c r="AM30">
@@ -8285,35 +7359,35 @@
         <v>10</v>
       </c>
       <c r="AR30">
-        <f t="shared" si="17"/>
-        <v>14.7</v>
+        <f t="shared" si="19"/>
+        <v>17.7</v>
       </c>
       <c r="AS30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>17.099999999999998</v>
       </c>
       <c r="AT30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>11.1</v>
       </c>
       <c r="AU30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>23.7</v>
       </c>
       <c r="AV30">
-        <f t="shared" si="29"/>
-        <v>49</v>
+        <f t="shared" si="31"/>
+        <v>59</v>
       </c>
       <c r="AW30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>57</v>
       </c>
       <c r="AX30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>37</v>
       </c>
       <c r="AY30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>39</v>
       </c>
       <c r="AZ30">
@@ -8331,52 +7405,52 @@
     </row>
     <row r="31" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>25</v>
       </c>
       <c r="B31">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="C31">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>18</v>
       </c>
       <c r="D31">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" si="5"/>
-        <v>-44.699999999999996</v>
+        <f t="shared" si="4"/>
+        <v>-52.8</v>
       </c>
       <c r="F31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>-59.4</v>
       </c>
       <c r="G31">
-        <f t="shared" si="5"/>
-        <v>-81</v>
+        <f t="shared" si="4"/>
+        <v>-84.3</v>
       </c>
       <c r="H31">
-        <f t="shared" si="5"/>
-        <v>-72.599999999999994</v>
+        <f t="shared" si="4"/>
+        <v>-72.899999999999991</v>
       </c>
       <c r="I31">
-        <f t="shared" si="26"/>
-        <v>95</v>
+        <f t="shared" si="27"/>
+        <v>122</v>
       </c>
       <c r="J31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>129</v>
       </c>
       <c r="K31">
-        <f t="shared" si="26"/>
-        <v>270</v>
+        <f t="shared" si="27"/>
+        <v>281</v>
       </c>
       <c r="L31">
-        <f t="shared" si="26"/>
-        <v>242</v>
+        <f t="shared" si="27"/>
+        <v>243</v>
       </c>
       <c r="M31">
         <v>54</v>
@@ -8394,36 +7468,36 @@
         <v>7</v>
       </c>
       <c r="R31">
+        <f t="shared" si="6"/>
+        <v>14.1</v>
+      </c>
+      <c r="S31">
         <f t="shared" si="7"/>
-        <v>11.4</v>
-      </c>
-      <c r="S31">
+        <v>18</v>
+      </c>
+      <c r="T31">
         <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="T31">
+        <v>11.1</v>
+      </c>
+      <c r="U31">
         <f t="shared" si="9"/>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="U31">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="V31">
         <f t="shared" si="10"/>
-        <v>23.099999999999998</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="27"/>
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="W31">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>51</v>
       </c>
       <c r="X31">
-        <f t="shared" si="27"/>
-        <v>68</v>
+        <f t="shared" si="12"/>
+        <v>37</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="27"/>
-        <v>77</v>
+        <f t="shared" si="29"/>
+        <v>58</v>
       </c>
       <c r="Z31">
         <v>12</v>
@@ -8441,35 +7515,35 @@
         <v>3</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="12"/>
-        <v>13.2</v>
+        <f t="shared" si="14"/>
+        <v>14.399999999999999</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>18.899999999999999</v>
       </c>
       <c r="AG31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>13.799999999999999</v>
       </c>
       <c r="AH31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>19.8</v>
       </c>
       <c r="AI31">
-        <f t="shared" si="28"/>
-        <v>44</v>
+        <f t="shared" si="30"/>
+        <v>48</v>
       </c>
       <c r="AJ31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>63</v>
       </c>
       <c r="AK31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>46</v>
       </c>
       <c r="AL31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>66</v>
       </c>
       <c r="AM31">
@@ -8488,35 +7562,35 @@
         <v>1</v>
       </c>
       <c r="AR31">
-        <f t="shared" si="17"/>
-        <v>18.3</v>
+        <f t="shared" si="19"/>
+        <v>21.3</v>
       </c>
       <c r="AS31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>20.7</v>
       </c>
       <c r="AT31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>16.2</v>
       </c>
       <c r="AU31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>23.4</v>
       </c>
       <c r="AV31">
-        <f t="shared" si="29"/>
-        <v>48</v>
+        <f t="shared" si="31"/>
+        <v>58</v>
       </c>
       <c r="AW31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>56</v>
       </c>
       <c r="AX31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>36</v>
       </c>
       <c r="AY31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>78</v>
       </c>
       <c r="AZ31">
@@ -8535,6 +7609,933 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CA2A45-21E6-41A8-8674-CFC6514CB879}">
+  <dimension ref="A1:Q39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2">
+        <f>SUM('transitions_state_all_2025-cost'!H2:H31)*-1</f>
+        <v>1796.7000000000003</v>
+      </c>
+      <c r="C2">
+        <f>SUM('transitions_state_all_2025-cost'!U$2:U$31)</f>
+        <v>499.5</v>
+      </c>
+      <c r="D2">
+        <f>SUM('transitions_state_all_2025-cost'!AH$2:AH$31)</f>
+        <v>610.50000000000011</v>
+      </c>
+      <c r="E2">
+        <f>SUM('transitions_state_all_2025-cost'!AU$2:AU$31)</f>
+        <v>607.5</v>
+      </c>
+      <c r="F2">
+        <f>SUM(C2:E2)+B2</f>
+        <v>3514.2000000000003</v>
+      </c>
+      <c r="G2">
+        <f>F2/$F$5</f>
+        <v>1.0598986608758598</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2">
+        <v>-6030</v>
+      </c>
+      <c r="M2">
+        <v>13717.399999999998</v>
+      </c>
+      <c r="N2">
+        <v>13395.2</v>
+      </c>
+      <c r="O2">
+        <v>14444.199999999999</v>
+      </c>
+      <c r="P2">
+        <v>35526.799999999996</v>
+      </c>
+      <c r="Q2">
+        <v>1.0499941452649832</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <f>SUM('transitions_state_all_2025-cost'!F2:F31)*-1</f>
+        <v>1772.4000000000005</v>
+      </c>
+      <c r="C3">
+        <f>SUM('transitions_state_all_2025-cost'!S$2:S$31)</f>
+        <v>496.2</v>
+      </c>
+      <c r="D3">
+        <f>SUM('transitions_state_all_2025-cost'!AF$2:AF$31)</f>
+        <v>581.70000000000005</v>
+      </c>
+      <c r="E3">
+        <f>SUM('transitions_state_all_2025-cost'!AS$2:AS$31)</f>
+        <v>634.20000000000005</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="0">SUM(C3:E3)+B3</f>
+        <v>3484.5000000000009</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G4" si="1">F3/$F$5</f>
+        <v>1.0509410061527329</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3">
+        <v>-5262.1079999999993</v>
+      </c>
+      <c r="M3">
+        <v>13657</v>
+      </c>
+      <c r="N3">
+        <v>13273.600000000002</v>
+      </c>
+      <c r="O3">
+        <v>14255.600000000004</v>
+      </c>
+      <c r="P3">
+        <v>35924.092000000004</v>
+      </c>
+      <c r="Q3">
+        <v>1.0383820417785368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <f>SUM('transitions_state_all_2025-cost'!G2:G31)*-1</f>
+        <v>1729.7999999999997</v>
+      </c>
+      <c r="C4">
+        <f>SUM('transitions_state_all_2025-cost'!T$2:T$31)</f>
+        <v>497.7000000000001</v>
+      </c>
+      <c r="D4">
+        <f>SUM('transitions_state_all_2025-cost'!AG$2:AG$31)</f>
+        <v>593.0999999999998</v>
+      </c>
+      <c r="E4">
+        <f>SUM('transitions_state_all_2025-cost'!AT$2:AT$31)</f>
+        <v>591.30000000000007</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>3411.8999999999996</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1.0290445168295332</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4">
+        <v>-5171.7479999999987</v>
+      </c>
+      <c r="M4">
+        <v>13953.399999999998</v>
+      </c>
+      <c r="N4">
+        <v>12976.2</v>
+      </c>
+      <c r="O4">
+        <v>14116.400000000001</v>
+      </c>
+      <c r="P4">
+        <v>35874.252</v>
+      </c>
+      <c r="Q4">
+        <v>1.0398246631037771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <f>SUM('transitions_state_all_2025-cost'!E2:E31)*-1</f>
+        <v>1674.5999999999997</v>
+      </c>
+      <c r="C5">
+        <f>SUM('transitions_state_all_2025-cost'!R$2:R$31)</f>
+        <v>486.30000000000007</v>
+      </c>
+      <c r="D5">
+        <f>SUM('transitions_state_all_2025-cost'!AE$2:AE$31)</f>
+        <v>585.29999999999995</v>
+      </c>
+      <c r="E5">
+        <f>SUM('transitions_state_all_2025-cost'!AR$2:AR$31)</f>
+        <v>569.4</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>3315.5999999999995</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5">
+        <v>-4967.268</v>
+      </c>
+      <c r="M5">
+        <v>14050.800000000001</v>
+      </c>
+      <c r="N5">
+        <v>13713.000000000002</v>
+      </c>
+      <c r="O5">
+        <v>14506.4</v>
+      </c>
+      <c r="P5">
+        <v>37302.932000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="2">
+        <f>AVERAGE('transitions_state_all_2025-cost'!L$2:L$31)</f>
+        <v>168.6</v>
+      </c>
+      <c r="C9" s="2">
+        <f>AVERAGE('transitions_state_all_2025-cost'!Y$2:Y$31)</f>
+        <v>45.533333333333331</v>
+      </c>
+      <c r="D9" s="2">
+        <f>AVERAGE('transitions_state_all_2025-cost'!AL$2:AL$31)</f>
+        <v>57.4</v>
+      </c>
+      <c r="E9" s="2">
+        <f>AVERAGE('transitions_state_all_2025-cost'!AY$2:AY$31)</f>
+        <v>57.033333333333331</v>
+      </c>
+      <c r="F9" s="2">
+        <f>SUM(B9:E9)</f>
+        <v>328.56666666666661</v>
+      </c>
+      <c r="G9">
+        <f>F9/F12</f>
+        <v>1.0588677623804919</v>
+      </c>
+      <c r="H9">
+        <f>B9/B12</f>
+        <v>1.0695707337703531</v>
+      </c>
+      <c r="I9">
+        <f>E9/E12</f>
+        <v>1.0754242614707732</v>
+      </c>
+      <c r="J9">
+        <f>E9/E12</f>
+        <v>1.0754242614707732</v>
+      </c>
+      <c r="K9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9">
+        <v>576.66666666666663</v>
+      </c>
+      <c r="M9">
+        <v>180.43333333333334</v>
+      </c>
+      <c r="N9">
+        <v>164.13333333333333</v>
+      </c>
+      <c r="O9">
+        <v>125.96666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2">
+        <f>AVERAGE('transitions_state_all_2025-cost'!J$2:J$31)</f>
+        <v>166.46666666666667</v>
+      </c>
+      <c r="C10" s="2">
+        <f>AVERAGE('transitions_state_all_2025-cost'!W$2:W$31)</f>
+        <v>45.1</v>
+      </c>
+      <c r="D10" s="2">
+        <f>AVERAGE('transitions_state_all_2025-cost'!AJ$2:AJ$31)</f>
+        <v>54.3</v>
+      </c>
+      <c r="E10" s="2">
+        <f>AVERAGE('transitions_state_all_2025-cost'!AW$2:AW$31)</f>
+        <v>60.3</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" ref="F10:F11" si="2">SUM(B10:E10)</f>
+        <v>326.16666666666669</v>
+      </c>
+      <c r="G10">
+        <f>F10/F12</f>
+        <v>1.0511333118487487</v>
+      </c>
+      <c r="H10">
+        <f>B10/B12</f>
+        <v>1.0560372171706494</v>
+      </c>
+      <c r="I10">
+        <f>E10/E12</f>
+        <v>1.1370207416719045</v>
+      </c>
+      <c r="K10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10">
+        <v>514.72266666666667</v>
+      </c>
+      <c r="M10">
+        <v>191.2</v>
+      </c>
+      <c r="N10">
+        <v>184.73333333333332</v>
+      </c>
+      <c r="O10">
+        <v>153.06666666666666</v>
+      </c>
+      <c r="P10">
+        <v>1.5031446540880502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="2">
+        <f>AVERAGE('transitions_state_all_2025-cost'!K$2:K$31)</f>
+        <v>161.96666666666667</v>
+      </c>
+      <c r="C11" s="2">
+        <f>AVERAGE('transitions_state_all_2025-cost'!X$2:X$31)</f>
+        <v>46.033333333333331</v>
+      </c>
+      <c r="D11" s="2">
+        <f>AVERAGE('transitions_state_all_2025-cost'!AK$2:AK$31)</f>
+        <v>56.133333333333333</v>
+      </c>
+      <c r="E11" s="2">
+        <f>AVERAGE('transitions_state_all_2025-cost'!AX$2:AX$31)</f>
+        <v>56.033333333333331</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>320.16666666666663</v>
+      </c>
+      <c r="I11">
+        <f>E11/E12</f>
+        <v>1.0565681961030797</v>
+      </c>
+      <c r="K11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11">
+        <v>523.63866666666672</v>
+      </c>
+      <c r="M11">
+        <v>144.13333333333333</v>
+      </c>
+      <c r="N11">
+        <v>237.63333333333333</v>
+      </c>
+      <c r="O11">
+        <v>174.66666666666666</v>
+      </c>
+      <c r="P11">
+        <v>1.1331236897274632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2">
+        <f>AVERAGE('transitions_state_all_2025-cost'!I$2:I$31)</f>
+        <v>157.63333333333333</v>
+      </c>
+      <c r="C12" s="2">
+        <f>AVERAGE('transitions_state_all_2025-cost'!V$2:V$31)</f>
+        <v>44.43333333333333</v>
+      </c>
+      <c r="D12" s="2">
+        <f>AVERAGE('transitions_state_all_2025-cost'!AI$2:AI$31)</f>
+        <v>55.2</v>
+      </c>
+      <c r="E12" s="2">
+        <f>AVERAGE('transitions_state_all_2025-cost'!AV$2:AV$31)</f>
+        <v>53.033333333333331</v>
+      </c>
+      <c r="F12" s="2">
+        <f>SUM(B12:E12)</f>
+        <v>310.29999999999995</v>
+      </c>
+      <c r="H12">
+        <f>B9/B12</f>
+        <v>1.0695707337703531</v>
+      </c>
+      <c r="K12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12">
+        <v>496.58533333333332</v>
+      </c>
+      <c r="M12">
+        <v>127.2</v>
+      </c>
+      <c r="N12">
+        <v>115.13333333333334</v>
+      </c>
+      <c r="O12">
+        <v>110.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <f>B12/B10</f>
+        <v>0.94693632358830593</v>
+      </c>
+      <c r="C13">
+        <f>C11/C12</f>
+        <v>1.0360090022505626</v>
+      </c>
+      <c r="D13">
+        <f>D10/D12</f>
+        <v>0.98369565217391297</v>
+      </c>
+      <c r="E13">
+        <f>E10/E12</f>
+        <v>1.1370207416719045</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <f>B12/B9</f>
+        <v>0.93495452748121788</v>
+      </c>
+      <c r="C14">
+        <f>C9/C12</f>
+        <v>1.0247561890472618</v>
+      </c>
+      <c r="D14">
+        <f>D9/D12</f>
+        <v>1.0398550724637681</v>
+      </c>
+      <c r="E14">
+        <f>E9/E12</f>
+        <v>1.0754242614707732</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!AZ2:AZ31)</f>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!AZ3:AZ32)</f>
+        <v>10.241379310344827</v>
+      </c>
+      <c r="F17">
+        <f>E17/E16</f>
+        <v>1.0344827586206895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!AZ4:AZ33)</f>
+        <v>10.607142857142858</v>
+      </c>
+      <c r="F18">
+        <f>E18/E16</f>
+        <v>1.0714285714285714</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!AZ5:AZ34)</f>
+        <v>9.9629629629629637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2">
+        <v>145</v>
+      </c>
+      <c r="C25" s="2">
+        <v>42</v>
+      </c>
+      <c r="D25" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!AK$2:AK$31)</f>
+        <v>56.133333333333333</v>
+      </c>
+      <c r="E25" s="2">
+        <v>55</v>
+      </c>
+      <c r="F25" s="2">
+        <f>SUM(B25:E25)</f>
+        <v>298.13333333333333</v>
+      </c>
+      <c r="G25">
+        <f>F25/F27</f>
+        <v>0.96079063272102283</v>
+      </c>
+      <c r="H25">
+        <f>F25/F26</f>
+        <v>1.0351851851851852</v>
+      </c>
+      <c r="I25">
+        <f>B25/B27</f>
+        <v>0.91985620638612819</v>
+      </c>
+      <c r="J25">
+        <f>C25/C27</f>
+        <v>0.94523630907726941</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>64</v>
+      </c>
+      <c r="B26" s="2">
+        <v>143</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45</v>
+      </c>
+      <c r="D26" s="2">
+        <v>51</v>
+      </c>
+      <c r="E26" s="2">
+        <v>49</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" ref="F26" si="3">SUM(B26:E26)</f>
+        <v>288</v>
+      </c>
+      <c r="G26">
+        <f>F26/F27</f>
+        <v>0.92813406380921704</v>
+      </c>
+      <c r="H26">
+        <f>F26/F27</f>
+        <v>0.92813406380921704</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>128</v>
+      </c>
+      <c r="B27" s="2">
+        <f>AVERAGE('transitions_state_all_2025-cost'!I$2:I$31)</f>
+        <v>157.63333333333333</v>
+      </c>
+      <c r="C27" s="2">
+        <f>AVERAGE('transitions_state_all_2025-cost'!V$2:V$31)</f>
+        <v>44.43333333333333</v>
+      </c>
+      <c r="D27" s="2">
+        <f>AVERAGE('transitions_state_all_2025-cost'!AI$2:AI$31)</f>
+        <v>55.2</v>
+      </c>
+      <c r="E27" s="2">
+        <f>AVERAGE('transitions_state_all_2025-cost'!AV$2:AV$31)</f>
+        <v>53.033333333333331</v>
+      </c>
+      <c r="F27" s="2">
+        <f>SUM(B27:E27)</f>
+        <v>310.29999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.9</v>
+      </c>
+      <c r="B31" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!I$2:I$31)</f>
+        <v>136.26666666666668</v>
+      </c>
+      <c r="C31" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!V$2:V$31)</f>
+        <v>39.299999999999997</v>
+      </c>
+      <c r="D31" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!AI$2:AI$31)</f>
+        <v>52.4</v>
+      </c>
+      <c r="E31" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!AV$2:AV$31)</f>
+        <v>46.43333333333333</v>
+      </c>
+      <c r="F31" s="2">
+        <f>SUM(B31:E31)</f>
+        <v>274.39999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.93</v>
+      </c>
+      <c r="B32" s="2">
+        <v>141</v>
+      </c>
+      <c r="C32" s="2">
+        <v>42</v>
+      </c>
+      <c r="D32" s="2">
+        <v>50</v>
+      </c>
+      <c r="E32" s="2">
+        <v>48</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" ref="F32:F33" si="4">SUM(B32:E32)</f>
+        <v>281</v>
+      </c>
+      <c r="G32">
+        <f>F32/F31</f>
+        <v>1.0240524781341109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.95</v>
+      </c>
+      <c r="B33" s="2">
+        <v>138</v>
+      </c>
+      <c r="C33" s="2">
+        <v>40</v>
+      </c>
+      <c r="D33" s="2">
+        <v>53</v>
+      </c>
+      <c r="E33" s="2">
+        <v>48</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="G33">
+        <f>F33/F31</f>
+        <v>1.0167638483965016</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2">
+        <v>145</v>
+      </c>
+      <c r="C37" s="2">
+        <v>41</v>
+      </c>
+      <c r="D37" s="2">
+        <v>53</v>
+      </c>
+      <c r="E37" s="2">
+        <v>44</v>
+      </c>
+      <c r="F37" s="2">
+        <f>SUM(B37:E37)</f>
+        <v>283</v>
+      </c>
+      <c r="G37">
+        <f>F37/F38</f>
+        <v>1.0313411078717203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!I$2:I$31)</f>
+        <v>136.26666666666668</v>
+      </c>
+      <c r="C38" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!V$2:V$31)</f>
+        <v>39.299999999999997</v>
+      </c>
+      <c r="D38" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!AI$2:AI$31)</f>
+        <v>52.4</v>
+      </c>
+      <c r="E38" s="2">
+        <f>AVERAGE('transitions_state_all_2025-03-1'!AV$2:AV$31)</f>
+        <v>46.43333333333333</v>
+      </c>
+      <c r="F38" s="2">
+        <f>SUM(B38:E38)</f>
+        <v>274.39999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" s="2">
+        <v>140</v>
+      </c>
+      <c r="C39" s="2">
+        <v>40</v>
+      </c>
+      <c r="D39" s="2">
+        <v>53</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" ref="F39" si="5">SUM(B39:E39)</f>
+        <v>278</v>
+      </c>
+      <c r="G39">
+        <f>F39/F38</f>
+        <v>1.0131195335276968</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/multi_echelon_inventory.xlsx
+++ b/multi_echelon_inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\whut\code\SCIMAI-Gym-new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BABF2AC-7AB4-4E0E-89BF-740DA675E5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFECF3FF-C617-4EF7-ACE8-CE73C3DA6A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C6CD6CAE-CD59-4781-B9D4-E37BEA742F3C}"/>
   </bookViews>
@@ -935,7 +935,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,6 +946,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7617,7 +7620,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="B37" sqref="B37:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8241,37 +8244,36 @@
         <v>32</v>
       </c>
       <c r="B25" s="2">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="C25" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D25" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AK$2:AK$31)</f>
-        <v>56.133333333333333</v>
+        <v>60</v>
       </c>
       <c r="E25" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2">
         <f>SUM(B25:E25)</f>
-        <v>298.13333333333333</v>
+        <v>328</v>
       </c>
       <c r="G25">
         <f>F25/F27</f>
-        <v>0.96079063272102283</v>
+        <v>1.0570415726716083</v>
       </c>
       <c r="H25">
         <f>F25/F26</f>
-        <v>1.0351851851851852</v>
+        <v>1.0218068535825544</v>
       </c>
       <c r="I25">
         <f>B25/B27</f>
-        <v>0.91985620638612819</v>
+        <v>1.0467329245083528</v>
       </c>
       <c r="J25">
         <f>C25/C27</f>
-        <v>0.94523630907726941</v>
+        <v>1.0577644411102776</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -8279,47 +8281,47 @@
         <v>64</v>
       </c>
       <c r="B26" s="2">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="C26" s="2">
         <v>45</v>
       </c>
       <c r="D26" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E26" s="2">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" ref="F26" si="3">SUM(B26:E26)</f>
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="G26">
         <f>F26/F27</f>
-        <v>0.92813406380921704</v>
+        <v>1.0344827586206897</v>
       </c>
       <c r="H26">
         <f>F26/F27</f>
-        <v>0.92813406380921704</v>
+        <v>1.0344827586206897</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>128</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="4">
         <f>AVERAGE('transitions_state_all_2025-cost'!I$2:I$31)</f>
         <v>157.63333333333333</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="4">
         <f>AVERAGE('transitions_state_all_2025-cost'!V$2:V$31)</f>
         <v>44.43333333333333</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="4">
         <f>AVERAGE('transitions_state_all_2025-cost'!AI$2:AI$31)</f>
         <v>55.2</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="4">
         <f>AVERAGE('transitions_state_all_2025-cost'!AV$2:AV$31)</f>
         <v>53.033333333333331</v>
       </c>
@@ -8361,25 +8363,25 @@
       <c r="A31">
         <v>0.9</v>
       </c>
-      <c r="B31" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!I$2:I$31)</f>
-        <v>136.26666666666668</v>
-      </c>
-      <c r="C31" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!V$2:V$31)</f>
-        <v>39.299999999999997</v>
-      </c>
-      <c r="D31" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AI$2:AI$31)</f>
-        <v>52.4</v>
-      </c>
-      <c r="E31" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AV$2:AV$31)</f>
-        <v>46.43333333333333</v>
+      <c r="B31" s="4">
+        <f>AVERAGE('transitions_state_all_2025-cost'!I$2:I$31)</f>
+        <v>157.63333333333333</v>
+      </c>
+      <c r="C31" s="4">
+        <f>AVERAGE('transitions_state_all_2025-cost'!V$2:V$31)</f>
+        <v>44.43333333333333</v>
+      </c>
+      <c r="D31" s="4">
+        <f>AVERAGE('transitions_state_all_2025-cost'!AI$2:AI$31)</f>
+        <v>55.2</v>
+      </c>
+      <c r="E31" s="4">
+        <f>AVERAGE('transitions_state_all_2025-cost'!AV$2:AV$31)</f>
+        <v>53.033333333333331</v>
       </c>
       <c r="F31" s="2">
         <f>SUM(B31:E31)</f>
-        <v>274.39999999999998</v>
+        <v>310.29999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -8387,24 +8389,24 @@
         <v>0.93</v>
       </c>
       <c r="B32" s="2">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C32" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D32" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E32" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" ref="F32:F33" si="4">SUM(B32:E32)</f>
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="G32">
         <f>F32/F31</f>
-        <v>1.0240524781341109</v>
+        <v>1.0280373831775702</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -8412,24 +8414,24 @@
         <v>0.95</v>
       </c>
       <c r="B33" s="2">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="C33" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D33" s="2">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E33" s="2">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="4"/>
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="G33">
         <f>F33/F31</f>
-        <v>1.0167638483965016</v>
+        <v>1.03126007089913</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -8462,49 +8464,49 @@
         <v>1</v>
       </c>
       <c r="B37" s="2">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="C37" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D37" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E37" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F37" s="2">
         <f>SUM(B37:E37)</f>
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="G37">
         <f>F37/F38</f>
-        <v>1.0313411078717203</v>
+        <v>1.0377054463422495</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2</v>
       </c>
-      <c r="B38" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!I$2:I$31)</f>
-        <v>136.26666666666668</v>
-      </c>
-      <c r="C38" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!V$2:V$31)</f>
-        <v>39.299999999999997</v>
-      </c>
-      <c r="D38" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AI$2:AI$31)</f>
-        <v>52.4</v>
-      </c>
-      <c r="E38" s="2">
-        <f>AVERAGE('transitions_state_all_2025-03-1'!AV$2:AV$31)</f>
-        <v>46.43333333333333</v>
+      <c r="B38" s="4">
+        <f>AVERAGE('transitions_state_all_2025-cost'!I$2:I$31)</f>
+        <v>157.63333333333333</v>
+      </c>
+      <c r="C38" s="4">
+        <f>AVERAGE('transitions_state_all_2025-cost'!V$2:V$31)</f>
+        <v>44.43333333333333</v>
+      </c>
+      <c r="D38" s="4">
+        <f>AVERAGE('transitions_state_all_2025-cost'!AI$2:AI$31)</f>
+        <v>55.2</v>
+      </c>
+      <c r="E38" s="4">
+        <f>AVERAGE('transitions_state_all_2025-cost'!AV$2:AV$31)</f>
+        <v>53.033333333333331</v>
       </c>
       <c r="F38" s="2">
         <f>SUM(B38:E38)</f>
-        <v>274.39999999999998</v>
+        <v>310.29999999999995</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -8512,24 +8514,24 @@
         <v>3</v>
       </c>
       <c r="B39" s="2">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C39" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D39" s="2">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E39" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F39" s="2">
         <f t="shared" ref="F39" si="5">SUM(B39:E39)</f>
-        <v>278</v>
+        <v>324</v>
       </c>
       <c r="G39">
         <f>F39/F38</f>
-        <v>1.0131195335276968</v>
+        <v>1.0441508217853692</v>
       </c>
     </row>
   </sheetData>

--- a/multi_echelon_inventory.xlsx
+++ b/multi_echelon_inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\whut\code\SCIMAI-Gym-new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFECF3FF-C617-4EF7-ACE8-CE73C3DA6A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2612DE90-C302-443B-82B4-8BD83E09FD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C6CD6CAE-CD59-4781-B9D4-E37BEA742F3C}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="89">
   <si>
     <t>demand_f_ma_dfppo</t>
   </si>
@@ -327,6 +327,10 @@
   </si>
   <si>
     <t>总成本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售商总成本</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1308,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E426974-02EA-4F3A-8B92-6B3E27CF32A8}">
   <dimension ref="A1:BC31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AU1" sqref="AU1:AU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7619,8 +7623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CA2A45-21E6-41A8-8674-CFC6514CB879}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7647,6 +7651,9 @@
       <c r="G1" t="s">
         <v>71</v>
       </c>
+      <c r="H1" t="s">
+        <v>88</v>
+      </c>
       <c r="K1" s="3" t="s">
         <v>72</v>
       </c>
@@ -7696,6 +7703,10 @@
       <c r="G2">
         <f>F2/$F$5</f>
         <v>1.0598986608758598</v>
+      </c>
+      <c r="H2">
+        <f>SUM(C2:E2)</f>
+        <v>1717.5</v>
       </c>
       <c r="K2" t="s">
         <v>54</v>
